--- a/resultados/pretratamiento-tablas/pretrat-alemania-elo-dificil.xlsx
+++ b/resultados/pretratamiento-tablas/pretrat-alemania-elo-dificil.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="709">
   <si>
     <t>Pretrat</t>
   </si>
@@ -82,6 +82,2076 @@
   </si>
   <si>
     <t>promoccup_ant_5</t>
+  </si>
+  <si>
+    <t>47.385 (104)</t>
+  </si>
+  <si>
+    <t>45.058 (104)</t>
+  </si>
+  <si>
+    <t>45.769 (104)</t>
+  </si>
+  <si>
+    <t>45.942 (104)</t>
+  </si>
+  <si>
+    <t>43.673 (104)</t>
+  </si>
+  <si>
+    <t>9.308 (104)</t>
+  </si>
+  <si>
+    <t>10.231 (104)</t>
+  </si>
+  <si>
+    <t>9.952 (104)</t>
+  </si>
+  <si>
+    <t>9.885 (104)</t>
+  </si>
+  <si>
+    <t>10.337 (104)</t>
+  </si>
+  <si>
+    <t>0.879 (104)</t>
+  </si>
+  <si>
+    <t>0.863 (104)</t>
+  </si>
+  <si>
+    <t>0.845 (104)</t>
+  </si>
+  <si>
+    <t>0.823 (104)</t>
+  </si>
+  <si>
+    <t>45.671 (152)</t>
+  </si>
+  <si>
+    <t>44.303 (152)</t>
+  </si>
+  <si>
+    <t>44.618 (152)</t>
+  </si>
+  <si>
+    <t>42.507 (152)</t>
+  </si>
+  <si>
+    <t>41.053 (152)</t>
+  </si>
+  <si>
+    <t>9.658 (152)</t>
+  </si>
+  <si>
+    <t>10.447 (152)</t>
+  </si>
+  <si>
+    <t>10.658 (152)</t>
+  </si>
+  <si>
+    <t>11.184 (152)</t>
+  </si>
+  <si>
+    <t>11.158 (152)</t>
+  </si>
+  <si>
+    <t>0.876 (152)</t>
+  </si>
+  <si>
+    <t>0.859 (152)</t>
+  </si>
+  <si>
+    <t>0.84 (152)</t>
+  </si>
+  <si>
+    <t>0.83 (152)</t>
+  </si>
+  <si>
+    <t>0.818 (152)</t>
+  </si>
+  <si>
+    <t>45.857 (14)</t>
+  </si>
+  <si>
+    <t>43.071 (14)</t>
+  </si>
+  <si>
+    <t>38.786 (14)</t>
+  </si>
+  <si>
+    <t>40.429 (14)</t>
+  </si>
+  <si>
+    <t>38.0 (14)</t>
+  </si>
+  <si>
+    <t>8.714 (14)</t>
+  </si>
+  <si>
+    <t>10.214 (14)</t>
+  </si>
+  <si>
+    <t>13.0 (14)</t>
+  </si>
+  <si>
+    <t>11.929 (14)</t>
+  </si>
+  <si>
+    <t>11.857 (14)</t>
+  </si>
+  <si>
+    <t>0.909 (14)</t>
+  </si>
+  <si>
+    <t>0.888 (14)</t>
+  </si>
+  <si>
+    <t>0.866 (14)</t>
+  </si>
+  <si>
+    <t>0.878 (14)</t>
+  </si>
+  <si>
+    <t>0.896 (14)</t>
+  </si>
+  <si>
+    <t>49.743 (74)</t>
+  </si>
+  <si>
+    <t>46.743 (74)</t>
+  </si>
+  <si>
+    <t>46.541 (74)</t>
+  </si>
+  <si>
+    <t>46.824 (74)</t>
+  </si>
+  <si>
+    <t>44.338 (74)</t>
+  </si>
+  <si>
+    <t>8.514 (74)</t>
+  </si>
+  <si>
+    <t>9.662 (74)</t>
+  </si>
+  <si>
+    <t>9.649 (74)</t>
+  </si>
+  <si>
+    <t>10.27 (74)</t>
+  </si>
+  <si>
+    <t>0.888 (74)</t>
+  </si>
+  <si>
+    <t>0.863 (74)</t>
+  </si>
+  <si>
+    <t>0.861 (74)</t>
+  </si>
+  <si>
+    <t>0.845 (74)</t>
+  </si>
+  <si>
+    <t>0.828 (74)</t>
+  </si>
+  <si>
+    <t>44.958 (167)</t>
+  </si>
+  <si>
+    <t>43.437 (167)</t>
+  </si>
+  <si>
+    <t>44.377 (167)</t>
+  </si>
+  <si>
+    <t>42.695 (167)</t>
+  </si>
+  <si>
+    <t>41.234 (167)</t>
+  </si>
+  <si>
+    <t>9.94 (167)</t>
+  </si>
+  <si>
+    <t>10.766 (167)</t>
+  </si>
+  <si>
+    <t>10.772 (167)</t>
+  </si>
+  <si>
+    <t>11.096 (167)</t>
+  </si>
+  <si>
+    <t>11.036 (167)</t>
+  </si>
+  <si>
+    <t>0.871 (167)</t>
+  </si>
+  <si>
+    <t>0.856 (167)</t>
+  </si>
+  <si>
+    <t>0.842 (167)</t>
+  </si>
+  <si>
+    <t>0.831 (167)</t>
+  </si>
+  <si>
+    <t>0.814 (167)</t>
+  </si>
+  <si>
+    <t>45.621 (29)</t>
+  </si>
+  <si>
+    <t>45.172 (29)</t>
+  </si>
+  <si>
+    <t>42.414 (29)</t>
+  </si>
+  <si>
+    <t>41.724 (29)</t>
+  </si>
+  <si>
+    <t>39.552 (29)</t>
+  </si>
+  <si>
+    <t>9.241 (29)</t>
+  </si>
+  <si>
+    <t>9.724 (29)</t>
+  </si>
+  <si>
+    <t>11.138 (29)</t>
+  </si>
+  <si>
+    <t>11.31 (29)</t>
+  </si>
+  <si>
+    <t>11.517 (29)</t>
+  </si>
+  <si>
+    <t>0.9 (29)</t>
+  </si>
+  <si>
+    <t>0.892 (29)</t>
+  </si>
+  <si>
+    <t>0.869 (29)</t>
+  </si>
+  <si>
+    <t>0.859 (29)</t>
+  </si>
+  <si>
+    <t>0.871 (29)</t>
+  </si>
+  <si>
+    <t>50.021 (48)</t>
+  </si>
+  <si>
+    <t>47.271 (48)</t>
+  </si>
+  <si>
+    <t>46.792 (48)</t>
+  </si>
+  <si>
+    <t>47.062 (48)</t>
+  </si>
+  <si>
+    <t>44.542 (48)</t>
+  </si>
+  <si>
+    <t>8.542 (48)</t>
+  </si>
+  <si>
+    <t>9.583 (48)</t>
+  </si>
+  <si>
+    <t>9.458 (48)</t>
+  </si>
+  <si>
+    <t>9.688 (48)</t>
+  </si>
+  <si>
+    <t>10.417 (48)</t>
+  </si>
+  <si>
+    <t>0.88 (48)</t>
+  </si>
+  <si>
+    <t>0.863 (48)</t>
+  </si>
+  <si>
+    <t>0.853 (48)</t>
+  </si>
+  <si>
+    <t>0.839 (48)</t>
+  </si>
+  <si>
+    <t>0.814 (48)</t>
+  </si>
+  <si>
+    <t>45.594 (175)</t>
+  </si>
+  <si>
+    <t>43.589 (175)</t>
+  </si>
+  <si>
+    <t>44.12 (175)</t>
+  </si>
+  <si>
+    <t>42.937 (175)</t>
+  </si>
+  <si>
+    <t>41.394 (175)</t>
+  </si>
+  <si>
+    <t>9.703 (175)</t>
+  </si>
+  <si>
+    <t>10.663 (175)</t>
+  </si>
+  <si>
+    <t>10.874 (175)</t>
+  </si>
+  <si>
+    <t>10.96 (175)</t>
+  </si>
+  <si>
+    <t>10.931 (175)</t>
+  </si>
+  <si>
+    <t>0.874 (175)</t>
+  </si>
+  <si>
+    <t>0.856 (175)</t>
+  </si>
+  <si>
+    <t>0.844 (175)</t>
+  </si>
+  <si>
+    <t>0.832 (175)</t>
+  </si>
+  <si>
+    <t>0.82 (175)</t>
+  </si>
+  <si>
+    <t>45.326 (46)</t>
+  </si>
+  <si>
+    <t>45.739 (46)</t>
+  </si>
+  <si>
+    <t>45.5 (46)</t>
+  </si>
+  <si>
+    <t>43.435 (46)</t>
+  </si>
+  <si>
+    <t>41.174 (46)</t>
+  </si>
+  <si>
+    <t>9.587 (46)</t>
+  </si>
+  <si>
+    <t>9.783 (46)</t>
+  </si>
+  <si>
+    <t>10.022 (46)</t>
+  </si>
+  <si>
+    <t>10.783 (46)</t>
+  </si>
+  <si>
+    <t>11.152 (46)</t>
+  </si>
+  <si>
+    <t>0.895 (46)</t>
+  </si>
+  <si>
+    <t>0.881 (46)</t>
+  </si>
+  <si>
+    <t>0.871 (46)</t>
+  </si>
+  <si>
+    <t>0.857 (46)</t>
+  </si>
+  <si>
+    <t>0.843 (46)</t>
+  </si>
+  <si>
+    <t>47.0 (1)</t>
+  </si>
+  <si>
+    <t>22.0 (1)</t>
+  </si>
+  <si>
+    <t>25.0 (1)</t>
+  </si>
+  <si>
+    <t>34.0 (1)</t>
+  </si>
+  <si>
+    <t>38.0 (1)</t>
+  </si>
+  <si>
+    <t>9.0 (1)</t>
+  </si>
+  <si>
+    <t>19.0 (1)</t>
+  </si>
+  <si>
+    <t>16.0 (1)</t>
+  </si>
+  <si>
+    <t>11.0 (1)</t>
+  </si>
+  <si>
+    <t>0.989 (1)</t>
+  </si>
+  <si>
+    <t>0.862 (1)</t>
+  </si>
+  <si>
+    <t>0.85 (1)</t>
+  </si>
+  <si>
+    <t>0.997 (1)</t>
+  </si>
+  <si>
+    <t>0.994 (1)</t>
+  </si>
+  <si>
+    <t>50.938 (32)</t>
+  </si>
+  <si>
+    <t>46.844 (32)</t>
+  </si>
+  <si>
+    <t>45.969 (32)</t>
+  </si>
+  <si>
+    <t>46.156 (32)</t>
+  </si>
+  <si>
+    <t>45.062 (32)</t>
+  </si>
+  <si>
+    <t>8.531 (32)</t>
+  </si>
+  <si>
+    <t>9.844 (32)</t>
+  </si>
+  <si>
+    <t>9.969 (32)</t>
+  </si>
+  <si>
+    <t>10.219 (32)</t>
+  </si>
+  <si>
+    <t>10.344 (32)</t>
+  </si>
+  <si>
+    <t>0.879 (32)</t>
+  </si>
+  <si>
+    <t>0.862 (32)</t>
+  </si>
+  <si>
+    <t>0.853 (32)</t>
+  </si>
+  <si>
+    <t>0.835 (32)</t>
+  </si>
+  <si>
+    <t>0.814 (32)</t>
+  </si>
+  <si>
+    <t>45.891 (165)</t>
+  </si>
+  <si>
+    <t>43.909 (165)</t>
+  </si>
+  <si>
+    <t>45.139 (165)</t>
+  </si>
+  <si>
+    <t>43.315 (165)</t>
+  </si>
+  <si>
+    <t>41.127 (165)</t>
+  </si>
+  <si>
+    <t>9.606 (165)</t>
+  </si>
+  <si>
+    <t>10.588 (165)</t>
+  </si>
+  <si>
+    <t>10.394 (165)</t>
+  </si>
+  <si>
+    <t>10.897 (165)</t>
+  </si>
+  <si>
+    <t>11.115 (165)</t>
+  </si>
+  <si>
+    <t>0.878 (165)</t>
+  </si>
+  <si>
+    <t>0.859 (165)</t>
+  </si>
+  <si>
+    <t>0.849 (165)</t>
+  </si>
+  <si>
+    <t>0.834 (165)</t>
+  </si>
+  <si>
+    <t>0.823 (165)</t>
+  </si>
+  <si>
+    <t>44.957 (69)</t>
+  </si>
+  <si>
+    <t>45.116 (69)</t>
+  </si>
+  <si>
+    <t>43.725 (69)</t>
+  </si>
+  <si>
+    <t>43.522 (69)</t>
+  </si>
+  <si>
+    <t>42.942 (69)</t>
+  </si>
+  <si>
+    <t>9.783 (69)</t>
+  </si>
+  <si>
+    <t>10.014 (69)</t>
+  </si>
+  <si>
+    <t>10.913 (69)</t>
+  </si>
+  <si>
+    <t>10.522 (69)</t>
+  </si>
+  <si>
+    <t>10.362 (69)</t>
+  </si>
+  <si>
+    <t>0.88 (69)</t>
+  </si>
+  <si>
+    <t>0.867 (69)</t>
+  </si>
+  <si>
+    <t>0.852 (69)</t>
+  </si>
+  <si>
+    <t>0.846 (69)</t>
+  </si>
+  <si>
+    <t>0.827 (69)</t>
+  </si>
+  <si>
+    <t>52.0 (4)</t>
+  </si>
+  <si>
+    <t>41.5 (4)</t>
+  </si>
+  <si>
+    <t>37.25 (4)</t>
+  </si>
+  <si>
+    <t>44.5 (4)</t>
+  </si>
+  <si>
+    <t>30.75 (4)</t>
+  </si>
+  <si>
+    <t>6.25 (4)</t>
+  </si>
+  <si>
+    <t>10.5 (4)</t>
+  </si>
+  <si>
+    <t>12.5 (4)</t>
+  </si>
+  <si>
+    <t>11.0 (4)</t>
+  </si>
+  <si>
+    <t>14.25 (4)</t>
+  </si>
+  <si>
+    <t>0.899 (4)</t>
+  </si>
+  <si>
+    <t>0.86 (4)</t>
+  </si>
+  <si>
+    <t>0.866 (4)</t>
+  </si>
+  <si>
+    <t>0.892 (4)</t>
+  </si>
+  <si>
+    <t>0.875 (4)</t>
+  </si>
+  <si>
+    <t>47.0 (67)</t>
+  </si>
+  <si>
+    <t>44.657 (67)</t>
+  </si>
+  <si>
+    <t>44.896 (67)</t>
+  </si>
+  <si>
+    <t>46.015 (67)</t>
+  </si>
+  <si>
+    <t>43.582 (67)</t>
+  </si>
+  <si>
+    <t>9.642 (67)</t>
+  </si>
+  <si>
+    <t>10.493 (67)</t>
+  </si>
+  <si>
+    <t>10.209 (67)</t>
+  </si>
+  <si>
+    <t>9.94 (67)</t>
+  </si>
+  <si>
+    <t>10.433 (67)</t>
+  </si>
+  <si>
+    <t>0.893 (67)</t>
+  </si>
+  <si>
+    <t>0.868 (67)</t>
+  </si>
+  <si>
+    <t>0.863 (67)</t>
+  </si>
+  <si>
+    <t>0.844 (67)</t>
+  </si>
+  <si>
+    <t>0.824 (67)</t>
+  </si>
+  <si>
+    <t>46.157 (166)</t>
+  </si>
+  <si>
+    <t>44.783 (166)</t>
+  </si>
+  <si>
+    <t>45.554 (166)</t>
+  </si>
+  <si>
+    <t>43.512 (166)</t>
+  </si>
+  <si>
+    <t>41.669 (166)</t>
+  </si>
+  <si>
+    <t>9.343 (166)</t>
+  </si>
+  <si>
+    <t>10.193 (166)</t>
+  </si>
+  <si>
+    <t>10.253 (166)</t>
+  </si>
+  <si>
+    <t>10.699 (166)</t>
+  </si>
+  <si>
+    <t>10.886 (166)</t>
+  </si>
+  <si>
+    <t>0.869 (166)</t>
+  </si>
+  <si>
+    <t>0.855 (166)</t>
+  </si>
+  <si>
+    <t>0.844 (166)</t>
+  </si>
+  <si>
+    <t>0.829 (166)</t>
+  </si>
+  <si>
+    <t>0.815 (166)</t>
+  </si>
+  <si>
+    <t>45.973 (37)</t>
+  </si>
+  <si>
+    <t>43.162 (37)</t>
+  </si>
+  <si>
+    <t>40.946 (37)</t>
+  </si>
+  <si>
+    <t>40.514 (37)</t>
+  </si>
+  <si>
+    <t>39.919 (37)</t>
+  </si>
+  <si>
+    <t>9.757 (37)</t>
+  </si>
+  <si>
+    <t>10.811 (37)</t>
+  </si>
+  <si>
+    <t>12.189 (37)</t>
+  </si>
+  <si>
+    <t>12.243 (37)</t>
+  </si>
+  <si>
+    <t>11.649 (37)</t>
+  </si>
+  <si>
+    <t>0.898 (37)</t>
+  </si>
+  <si>
+    <t>0.877 (37)</t>
+  </si>
+  <si>
+    <t>0.856 (37)</t>
+  </si>
+  <si>
+    <t>0.867 (37)</t>
+  </si>
+  <si>
+    <t>0.862 (37)</t>
+  </si>
+  <si>
+    <t>49.167 (48)</t>
+  </si>
+  <si>
+    <t>47.312 (48)</t>
+  </si>
+  <si>
+    <t>46.479 (48)</t>
+  </si>
+  <si>
+    <t>47.771 (48)</t>
+  </si>
+  <si>
+    <t>46.438 (48)</t>
+  </si>
+  <si>
+    <t>8.958 (48)</t>
+  </si>
+  <si>
+    <t>9.604 (48)</t>
+  </si>
+  <si>
+    <t>9.542 (48)</t>
+  </si>
+  <si>
+    <t>9.521 (48)</t>
+  </si>
+  <si>
+    <t>0.902 (48)</t>
+  </si>
+  <si>
+    <t>0.872 (48)</t>
+  </si>
+  <si>
+    <t>0.869 (48)</t>
+  </si>
+  <si>
+    <t>0.851 (48)</t>
+  </si>
+  <si>
+    <t>0.844 (48)</t>
+  </si>
+  <si>
+    <t>46.0 (148)</t>
+  </si>
+  <si>
+    <t>44.264 (148)</t>
+  </si>
+  <si>
+    <t>44.851 (148)</t>
+  </si>
+  <si>
+    <t>43.365 (148)</t>
+  </si>
+  <si>
+    <t>40.932 (148)</t>
+  </si>
+  <si>
+    <t>9.412 (148)</t>
+  </si>
+  <si>
+    <t>10.345 (148)</t>
+  </si>
+  <si>
+    <t>10.561 (148)</t>
+  </si>
+  <si>
+    <t>10.676 (148)</t>
+  </si>
+  <si>
+    <t>11.101 (148)</t>
+  </si>
+  <si>
+    <t>0.867 (148)</t>
+  </si>
+  <si>
+    <t>0.853 (148)</t>
+  </si>
+  <si>
+    <t>0.84 (148)</t>
+  </si>
+  <si>
+    <t>0.823 (148)</t>
+  </si>
+  <si>
+    <t>0.804 (148)</t>
+  </si>
+  <si>
+    <t>45.571 (70)</t>
+  </si>
+  <si>
+    <t>43.2 (70)</t>
+  </si>
+  <si>
+    <t>44.157 (70)</t>
+  </si>
+  <si>
+    <t>42.2 (70)</t>
+  </si>
+  <si>
+    <t>41.914 (70)</t>
+  </si>
+  <si>
+    <t>9.8 (70)</t>
+  </si>
+  <si>
+    <t>10.914 (70)</t>
+  </si>
+  <si>
+    <t>10.743 (70)</t>
+  </si>
+  <si>
+    <t>11.457 (70)</t>
+  </si>
+  <si>
+    <t>10.843 (70)</t>
+  </si>
+  <si>
+    <t>0.89 (70)</t>
+  </si>
+  <si>
+    <t>0.874 (70)</t>
+  </si>
+  <si>
+    <t>0.861 (70)</t>
+  </si>
+  <si>
+    <t>0.862 (70)</t>
+  </si>
+  <si>
+    <t>0.851 (70)</t>
+  </si>
+  <si>
+    <t>38.5 (4)</t>
+  </si>
+  <si>
+    <t>44.25 (4)</t>
+  </si>
+  <si>
+    <t>31.25 (4)</t>
+  </si>
+  <si>
+    <t>35.0 (4)</t>
+  </si>
+  <si>
+    <t>23.25 (4)</t>
+  </si>
+  <si>
+    <t>12.25 (4)</t>
+  </si>
+  <si>
+    <t>9.75 (4)</t>
+  </si>
+  <si>
+    <t>16.0 (4)</t>
+  </si>
+  <si>
+    <t>14.0 (4)</t>
+  </si>
+  <si>
+    <t>17.5 (4)</t>
+  </si>
+  <si>
+    <t>0.849 (4)</t>
+  </si>
+  <si>
+    <t>0.821 (4)</t>
+  </si>
+  <si>
+    <t>0.82 (4)</t>
+  </si>
+  <si>
+    <t>0.847 (4)</t>
+  </si>
+  <si>
+    <t>49.0 (28)</t>
+  </si>
+  <si>
+    <t>47.643 (28)</t>
+  </si>
+  <si>
+    <t>46.643 (28)</t>
+  </si>
+  <si>
+    <t>48.0 (28)</t>
+  </si>
+  <si>
+    <t>45.643 (28)</t>
+  </si>
+  <si>
+    <t>8.857 (28)</t>
+  </si>
+  <si>
+    <t>9.786 (28)</t>
+  </si>
+  <si>
+    <t>9.321 (28)</t>
+  </si>
+  <si>
+    <t>9.607 (28)</t>
+  </si>
+  <si>
+    <t>10.071 (28)</t>
+  </si>
+  <si>
+    <t>0.9 (28)</t>
+  </si>
+  <si>
+    <t>0.882 (28)</t>
+  </si>
+  <si>
+    <t>0.87 (28)</t>
+  </si>
+  <si>
+    <t>0.853 (28)</t>
+  </si>
+  <si>
+    <t>0.832 (28)</t>
+  </si>
+  <si>
+    <t>46.0 (132)</t>
+  </si>
+  <si>
+    <t>44.341 (132)</t>
+  </si>
+  <si>
+    <t>44.356 (132)</t>
+  </si>
+  <si>
+    <t>43.765 (132)</t>
+  </si>
+  <si>
+    <t>41.614 (132)</t>
+  </si>
+  <si>
+    <t>9.553 (132)</t>
+  </si>
+  <si>
+    <t>10.311 (132)</t>
+  </si>
+  <si>
+    <t>10.742 (132)</t>
+  </si>
+  <si>
+    <t>10.515 (132)</t>
+  </si>
+  <si>
+    <t>10.947 (132)</t>
+  </si>
+  <si>
+    <t>0.865 (132)</t>
+  </si>
+  <si>
+    <t>0.845 (132)</t>
+  </si>
+  <si>
+    <t>0.835 (132)</t>
+  </si>
+  <si>
+    <t>0.814 (132)</t>
+  </si>
+  <si>
+    <t>0.803 (132)</t>
+  </si>
+  <si>
+    <t>46.873 (102)</t>
+  </si>
+  <si>
+    <t>44.461 (102)</t>
+  </si>
+  <si>
+    <t>45.902 (102)</t>
+  </si>
+  <si>
+    <t>43.314 (102)</t>
+  </si>
+  <si>
+    <t>42.294 (102)</t>
+  </si>
+  <si>
+    <t>9.235 (102)</t>
+  </si>
+  <si>
+    <t>10.373 (102)</t>
+  </si>
+  <si>
+    <t>10.069 (102)</t>
+  </si>
+  <si>
+    <t>10.98 (102)</t>
+  </si>
+  <si>
+    <t>10.618 (102)</t>
+  </si>
+  <si>
+    <t>0.892 (102)</t>
+  </si>
+  <si>
+    <t>0.881 (102)</t>
+  </si>
+  <si>
+    <t>0.867 (102)</t>
+  </si>
+  <si>
+    <t>0.865 (102)</t>
+  </si>
+  <si>
+    <t>0.849 (102)</t>
+  </si>
+  <si>
+    <t>35.875 (8)</t>
+  </si>
+  <si>
+    <t>37.625 (8)</t>
+  </si>
+  <si>
+    <t>30.25 (8)</t>
+  </si>
+  <si>
+    <t>33.25 (8)</t>
+  </si>
+  <si>
+    <t>28.625 (8)</t>
+  </si>
+  <si>
+    <t>13.375 (8)</t>
+  </si>
+  <si>
+    <t>12.75 (8)</t>
+  </si>
+  <si>
+    <t>16.375 (8)</t>
+  </si>
+  <si>
+    <t>14.75 (8)</t>
+  </si>
+  <si>
+    <t>15.875 (8)</t>
+  </si>
+  <si>
+    <t>0.86 (8)</t>
+  </si>
+  <si>
+    <t>0.81 (8)</t>
+  </si>
+  <si>
+    <t>0.825 (8)</t>
+  </si>
+  <si>
+    <t>0.842 (8)</t>
+  </si>
+  <si>
+    <t>0.82 (8)</t>
+  </si>
+  <si>
+    <t>50.0 (18)</t>
+  </si>
+  <si>
+    <t>48.389 (18)</t>
+  </si>
+  <si>
+    <t>46.389 (18)</t>
+  </si>
+  <si>
+    <t>47.333 (18)</t>
+  </si>
+  <si>
+    <t>47.111 (18)</t>
+  </si>
+  <si>
+    <t>8.722 (18)</t>
+  </si>
+  <si>
+    <t>10.0 (18)</t>
+  </si>
+  <si>
+    <t>9.833 (18)</t>
+  </si>
+  <si>
+    <t>10.167 (18)</t>
+  </si>
+  <si>
+    <t>9.5 (18)</t>
+  </si>
+  <si>
+    <t>0.906 (18)</t>
+  </si>
+  <si>
+    <t>0.886 (18)</t>
+  </si>
+  <si>
+    <t>0.877 (18)</t>
+  </si>
+  <si>
+    <t>0.845 (18)</t>
+  </si>
+  <si>
+    <t>0.847 (18)</t>
+  </si>
+  <si>
+    <t>47.257 (105)</t>
+  </si>
+  <si>
+    <t>45.4 (105)</t>
+  </si>
+  <si>
+    <t>45.867 (105)</t>
+  </si>
+  <si>
+    <t>43.857 (105)</t>
+  </si>
+  <si>
+    <t>41.838 (105)</t>
+  </si>
+  <si>
+    <t>9.162 (105)</t>
+  </si>
+  <si>
+    <t>9.829 (105)</t>
+  </si>
+  <si>
+    <t>9.981 (105)</t>
+  </si>
+  <si>
+    <t>10.676 (105)</t>
+  </si>
+  <si>
+    <t>11.038 (105)</t>
+  </si>
+  <si>
+    <t>0.879 (105)</t>
+  </si>
+  <si>
+    <t>0.858 (105)</t>
+  </si>
+  <si>
+    <t>0.846 (105)</t>
+  </si>
+  <si>
+    <t>0.822 (105)</t>
+  </si>
+  <si>
+    <t>0.818 (105)</t>
+  </si>
+  <si>
+    <t>45.583 (127)</t>
+  </si>
+  <si>
+    <t>43.551 (127)</t>
+  </si>
+  <si>
+    <t>44.961 (127)</t>
+  </si>
+  <si>
+    <t>43.835 (127)</t>
+  </si>
+  <si>
+    <t>41.622 (127)</t>
+  </si>
+  <si>
+    <t>9.701 (127)</t>
+  </si>
+  <si>
+    <t>10.819 (127)</t>
+  </si>
+  <si>
+    <t>10.543 (127)</t>
+  </si>
+  <si>
+    <t>10.559 (127)</t>
+  </si>
+  <si>
+    <t>10.843 (127)</t>
+  </si>
+  <si>
+    <t>0.87 (127)</t>
+  </si>
+  <si>
+    <t>0.858 (127)</t>
+  </si>
+  <si>
+    <t>0.845 (127)</t>
+  </si>
+  <si>
+    <t>0.844 (127)</t>
+  </si>
+  <si>
+    <t>0.818 (127)</t>
+  </si>
+  <si>
+    <t>42.737 (19)</t>
+  </si>
+  <si>
+    <t>42.316 (19)</t>
+  </si>
+  <si>
+    <t>36.263 (19)</t>
+  </si>
+  <si>
+    <t>38.947 (19)</t>
+  </si>
+  <si>
+    <t>40.526 (19)</t>
+  </si>
+  <si>
+    <t>10.579 (19)</t>
+  </si>
+  <si>
+    <t>10.632 (19)</t>
+  </si>
+  <si>
+    <t>13.579 (19)</t>
+  </si>
+  <si>
+    <t>12.579 (19)</t>
+  </si>
+  <si>
+    <t>11.105 (19)</t>
+  </si>
+  <si>
+    <t>0.922 (19)</t>
+  </si>
+  <si>
+    <t>0.891 (19)</t>
+  </si>
+  <si>
+    <t>0.896 (19)</t>
+  </si>
+  <si>
+    <t>0.875 (19)</t>
+  </si>
+  <si>
+    <t>49.0 (1)</t>
+  </si>
+  <si>
+    <t>50.0 (1)</t>
+  </si>
+  <si>
+    <t>35.0 (1)</t>
+  </si>
+  <si>
+    <t>41.0 (1)</t>
+  </si>
+  <si>
+    <t>17.0 (1)</t>
+  </si>
+  <si>
+    <t>6.0 (1)</t>
+  </si>
+  <si>
+    <t>7.0 (1)</t>
+  </si>
+  <si>
+    <t>15.0 (1)</t>
+  </si>
+  <si>
+    <t>0.675 (1)</t>
+  </si>
+  <si>
+    <t>0.667 (1)</t>
+  </si>
+  <si>
+    <t>0.672 (1)</t>
+  </si>
+  <si>
+    <t>0.695 (1)</t>
+  </si>
+  <si>
+    <t>0.824 (1)</t>
+  </si>
+  <si>
+    <t>46.75 (40)</t>
+  </si>
+  <si>
+    <t>47.025 (40)</t>
+  </si>
+  <si>
+    <t>47.1 (40)</t>
+  </si>
+  <si>
+    <t>47.075 (40)</t>
+  </si>
+  <si>
+    <t>44.75 (40)</t>
+  </si>
+  <si>
+    <t>9.625 (40)</t>
+  </si>
+  <si>
+    <t>9.675 (40)</t>
+  </si>
+  <si>
+    <t>9.45 (40)</t>
+  </si>
+  <si>
+    <t>9.525 (40)</t>
+  </si>
+  <si>
+    <t>9.95 (40)</t>
+  </si>
+  <si>
+    <t>0.894 (40)</t>
+  </si>
+  <si>
+    <t>0.862 (40)</t>
+  </si>
+  <si>
+    <t>0.852 (40)</t>
+  </si>
+  <si>
+    <t>0.839 (40)</t>
+  </si>
+  <si>
+    <t>0.812 (40)</t>
+  </si>
+  <si>
+    <t>45.933 (163)</t>
+  </si>
+  <si>
+    <t>43.834 (163)</t>
+  </si>
+  <si>
+    <t>45.196 (163)</t>
+  </si>
+  <si>
+    <t>44.012 (163)</t>
+  </si>
+  <si>
+    <t>41.669 (163)</t>
+  </si>
+  <si>
+    <t>9.577 (163)</t>
+  </si>
+  <si>
+    <t>10.589 (163)</t>
+  </si>
+  <si>
+    <t>10.337 (163)</t>
+  </si>
+  <si>
+    <t>10.534 (163)</t>
+  </si>
+  <si>
+    <t>10.988 (163)</t>
+  </si>
+  <si>
+    <t>0.87 (163)</t>
+  </si>
+  <si>
+    <t>0.853 (163)</t>
+  </si>
+  <si>
+    <t>0.847 (163)</t>
+  </si>
+  <si>
+    <t>0.827 (163)</t>
+  </si>
+  <si>
+    <t>0.815 (163)</t>
+  </si>
+  <si>
+    <t>46.844 (64)</t>
+  </si>
+  <si>
+    <t>44.641 (64)</t>
+  </si>
+  <si>
+    <t>42.266 (64)</t>
+  </si>
+  <si>
+    <t>40.828 (64)</t>
+  </si>
+  <si>
+    <t>40.344 (64)</t>
+  </si>
+  <si>
+    <t>9.203 (64)</t>
+  </si>
+  <si>
+    <t>10.281 (64)</t>
+  </si>
+  <si>
+    <t>11.625 (64)</t>
+  </si>
+  <si>
+    <t>11.953 (64)</t>
+  </si>
+  <si>
+    <t>11.312 (64)</t>
+  </si>
+  <si>
+    <t>0.893 (64)</t>
+  </si>
+  <si>
+    <t>0.885 (64)</t>
+  </si>
+  <si>
+    <t>0.861 (64)</t>
+  </si>
+  <si>
+    <t>0.868 (64)</t>
+  </si>
+  <si>
+    <t>0.852 (64)</t>
+  </si>
+  <si>
+    <t>52.333 (3)</t>
+  </si>
+  <si>
+    <t>46.667 (3)</t>
+  </si>
+  <si>
+    <t>43.0 (3)</t>
+  </si>
+  <si>
+    <t>45.0 (3)</t>
+  </si>
+  <si>
+    <t>50.0 (3)</t>
+  </si>
+  <si>
+    <t>7.667 (3)</t>
+  </si>
+  <si>
+    <t>8.0 (3)</t>
+  </si>
+  <si>
+    <t>10.0 (3)</t>
+  </si>
+  <si>
+    <t>10.667 (3)</t>
+  </si>
+  <si>
+    <t>0.87 (3)</t>
+  </si>
+  <si>
+    <t>0.825 (3)</t>
+  </si>
+  <si>
+    <t>0.806 (3)</t>
+  </si>
+  <si>
+    <t>0.879 (3)</t>
+  </si>
+  <si>
+    <t>49.87 (23)</t>
+  </si>
+  <si>
+    <t>49.478 (23)</t>
+  </si>
+  <si>
+    <t>49.043 (23)</t>
+  </si>
+  <si>
+    <t>47.522 (23)</t>
+  </si>
+  <si>
+    <t>46.739 (23)</t>
+  </si>
+  <si>
+    <t>8.609 (23)</t>
+  </si>
+  <si>
+    <t>8.913 (23)</t>
+  </si>
+  <si>
+    <t>8.957 (23)</t>
+  </si>
+  <si>
+    <t>9.783 (23)</t>
+  </si>
+  <si>
+    <t>9.696 (23)</t>
+  </si>
+  <si>
+    <t>0.905 (23)</t>
+  </si>
+  <si>
+    <t>0.869 (23)</t>
+  </si>
+  <si>
+    <t>0.867 (23)</t>
+  </si>
+  <si>
+    <t>0.856 (23)</t>
+  </si>
+  <si>
+    <t>0.842 (23)</t>
+  </si>
+  <si>
+    <t>46.425 (134)</t>
+  </si>
+  <si>
+    <t>44.56 (134)</t>
+  </si>
+  <si>
+    <t>45.187 (134)</t>
+  </si>
+  <si>
+    <t>45.164 (134)</t>
+  </si>
+  <si>
+    <t>42.448 (134)</t>
+  </si>
+  <si>
+    <t>9.433 (134)</t>
+  </si>
+  <si>
+    <t>10.254 (134)</t>
+  </si>
+  <si>
+    <t>10.239 (134)</t>
+  </si>
+  <si>
+    <t>10.022 (134)</t>
+  </si>
+  <si>
+    <t>10.634 (134)</t>
+  </si>
+  <si>
+    <t>0.868 (134)</t>
+  </si>
+  <si>
+    <t>0.847 (134)</t>
+  </si>
+  <si>
+    <t>0.842 (134)</t>
+  </si>
+  <si>
+    <t>0.822 (134)</t>
+  </si>
+  <si>
+    <t>0.811 (134)</t>
+  </si>
+  <si>
+    <t>44.99 (98)</t>
+  </si>
+  <si>
+    <t>43.194 (98)</t>
+  </si>
+  <si>
+    <t>43.694 (98)</t>
+  </si>
+  <si>
+    <t>41.296 (98)</t>
+  </si>
+  <si>
+    <t>40.357 (98)</t>
+  </si>
+  <si>
+    <t>9.837 (98)</t>
+  </si>
+  <si>
+    <t>10.98 (98)</t>
+  </si>
+  <si>
+    <t>11.092 (98)</t>
+  </si>
+  <si>
+    <t>11.786 (98)</t>
+  </si>
+  <si>
+    <t>11.429 (98)</t>
+  </si>
+  <si>
+    <t>0.892 (98)</t>
+  </si>
+  <si>
+    <t>0.878 (98)</t>
+  </si>
+  <si>
+    <t>0.856 (98)</t>
+  </si>
+  <si>
+    <t>0.852 (98)</t>
+  </si>
+  <si>
+    <t>0.831 (98)</t>
+  </si>
+  <si>
+    <t>49.0 (15)</t>
+  </si>
+  <si>
+    <t>45.4 (15)</t>
+  </si>
+  <si>
+    <t>41.333 (15)</t>
+  </si>
+  <si>
+    <t>40.867 (15)</t>
+  </si>
+  <si>
+    <t>39.733 (15)</t>
+  </si>
+  <si>
+    <t>8.8 (15)</t>
+  </si>
+  <si>
+    <t>9.333 (15)</t>
+  </si>
+  <si>
+    <t>11.467 (15)</t>
+  </si>
+  <si>
+    <t>11.267 (15)</t>
+  </si>
+  <si>
+    <t>0.854 (15)</t>
+  </si>
+  <si>
+    <t>0.873 (15)</t>
+  </si>
+  <si>
+    <t>0.865 (15)</t>
+  </si>
+  <si>
+    <t>0.864 (15)</t>
+  </si>
+  <si>
+    <t>0.862 (15)</t>
+  </si>
+  <si>
+    <t>53.2 (10)</t>
+  </si>
+  <si>
+    <t>51.2 (10)</t>
+  </si>
+  <si>
+    <t>54.1 (10)</t>
+  </si>
+  <si>
+    <t>49.7 (10)</t>
+  </si>
+  <si>
+    <t>46.3 (10)</t>
+  </si>
+  <si>
+    <t>7.9 (10)</t>
+  </si>
+  <si>
+    <t>8.6 (10)</t>
+  </si>
+  <si>
+    <t>7.5 (10)</t>
+  </si>
+  <si>
+    <t>9.3 (10)</t>
+  </si>
+  <si>
+    <t>10.3 (10)</t>
+  </si>
+  <si>
+    <t>0.912 (10)</t>
+  </si>
+  <si>
+    <t>0.876 (10)</t>
+  </si>
+  <si>
+    <t>0.857 (10)</t>
+  </si>
+  <si>
+    <t>0.859 (10)</t>
+  </si>
+  <si>
+    <t>0.807 (10)</t>
+  </si>
+  <si>
+    <t>45.696 (102)</t>
+  </si>
+  <si>
+    <t>44.343 (102)</t>
+  </si>
+  <si>
+    <t>44.5 (102)</t>
+  </si>
+  <si>
+    <t>45.441 (102)</t>
+  </si>
+  <si>
+    <t>42.127 (102)</t>
+  </si>
+  <si>
+    <t>9.608 (102)</t>
+  </si>
+  <si>
+    <t>10.451 (102)</t>
+  </si>
+  <si>
+    <t>9.843 (102)</t>
+  </si>
+  <si>
+    <t>10.804 (102)</t>
+  </si>
+  <si>
+    <t>0.863 (102)</t>
+  </si>
+  <si>
+    <t>0.839 (102)</t>
+  </si>
+  <si>
+    <t>0.835 (102)</t>
+  </si>
+  <si>
+    <t>0.815 (102)</t>
+  </si>
+  <si>
+    <t>0.806 (102)</t>
+  </si>
+  <si>
+    <t>47.071 (126)</t>
+  </si>
+  <si>
+    <t>45.746 (126)</t>
+  </si>
+  <si>
+    <t>46.04 (126)</t>
+  </si>
+  <si>
+    <t>43.659 (126)</t>
+  </si>
+  <si>
+    <t>43.079 (126)</t>
+  </si>
+  <si>
+    <t>9.222 (126)</t>
+  </si>
+  <si>
+    <t>9.889 (126)</t>
+  </si>
+  <si>
+    <t>10.19 (126)</t>
+  </si>
+  <si>
+    <t>10.857 (126)</t>
+  </si>
+  <si>
+    <t>10.413 (126)</t>
+  </si>
+  <si>
+    <t>0.891 (126)</t>
+  </si>
+  <si>
+    <t>0.879 (126)</t>
+  </si>
+  <si>
+    <t>0.863 (126)</t>
+  </si>
+  <si>
+    <t>0.848 (126)</t>
+  </si>
+  <si>
+    <t>0.835 (126)</t>
+  </si>
+  <si>
+    <t>43.375 (32)</t>
+  </si>
+  <si>
+    <t>38.25 (32)</t>
+  </si>
+  <si>
+    <t>37.625 (32)</t>
+  </si>
+  <si>
+    <t>36.625 (32)</t>
+  </si>
+  <si>
+    <t>35.188 (32)</t>
+  </si>
+  <si>
+    <t>10.531 (32)</t>
+  </si>
+  <si>
+    <t>12.406 (32)</t>
+  </si>
+  <si>
+    <t>13.125 (32)</t>
+  </si>
+  <si>
+    <t>13.438 (32)</t>
+  </si>
+  <si>
+    <t>0.872 (32)</t>
+  </si>
+  <si>
+    <t>0.861 (32)</t>
+  </si>
+  <si>
+    <t>0.846 (32)</t>
+  </si>
+  <si>
+    <t>0.863 (32)</t>
+  </si>
+  <si>
+    <t>0.841 (32)</t>
+  </si>
+  <si>
+    <t>58.25 (4)</t>
+  </si>
+  <si>
+    <t>60.0 (4)</t>
+  </si>
+  <si>
+    <t>57.0 (4)</t>
+  </si>
+  <si>
+    <t>53.0 (4)</t>
+  </si>
+  <si>
+    <t>48.25 (4)</t>
+  </si>
+  <si>
+    <t>6.75 (4)</t>
+  </si>
+  <si>
+    <t>7.5 (4)</t>
+  </si>
+  <si>
+    <t>10.0 (4)</t>
+  </si>
+  <si>
+    <t>0.937 (4)</t>
+  </si>
+  <si>
+    <t>0.888 (4)</t>
+  </si>
+  <si>
+    <t>0.856 (4)</t>
+  </si>
+  <si>
+    <t>0.843 (4)</t>
+  </si>
+  <si>
+    <t>0.844 (4)</t>
+  </si>
+  <si>
+    <t>46.761 (71)</t>
+  </si>
+  <si>
+    <t>44.141 (71)</t>
+  </si>
+  <si>
+    <t>45.507 (71)</t>
+  </si>
+  <si>
+    <t>45.394 (71)</t>
+  </si>
+  <si>
+    <t>43.028 (71)</t>
+  </si>
+  <si>
+    <t>9.366 (71)</t>
+  </si>
+  <si>
+    <t>10.507 (71)</t>
+  </si>
+  <si>
+    <t>9.958 (71)</t>
+  </si>
+  <si>
+    <t>10.042 (71)</t>
+  </si>
+  <si>
+    <t>10.634 (71)</t>
+  </si>
+  <si>
+    <t>0.876 (71)</t>
+  </si>
+  <si>
+    <t>0.852 (71)</t>
+  </si>
+  <si>
+    <t>0.843 (71)</t>
+  </si>
+  <si>
+    <t>0.814 (71)</t>
+  </si>
+  <si>
+    <t>0.817 (71)</t>
+  </si>
+  <si>
+    <t>46.481 (133)</t>
+  </si>
+  <si>
+    <t>46.023 (133)</t>
+  </si>
+  <si>
+    <t>46.82 (133)</t>
+  </si>
+  <si>
+    <t>44.549 (133)</t>
+  </si>
+  <si>
+    <t>42.241 (133)</t>
+  </si>
+  <si>
+    <t>9.459 (133)</t>
+  </si>
+  <si>
+    <t>9.872 (133)</t>
+  </si>
+  <si>
+    <t>9.82 (133)</t>
+  </si>
+  <si>
+    <t>10.368 (133)</t>
+  </si>
+  <si>
+    <t>10.737 (133)</t>
+  </si>
+  <si>
+    <t>0.877 (133)</t>
+  </si>
+  <si>
+    <t>0.865 (133)</t>
+  </si>
+  <si>
+    <t>0.854 (133)</t>
+  </si>
+  <si>
+    <t>0.845 (133)</t>
+  </si>
+  <si>
+    <t>0.824 (133)</t>
+  </si>
+  <si>
+    <t>44.833 (60)</t>
+  </si>
+  <si>
+    <t>40.583 (60)</t>
+  </si>
+  <si>
+    <t>38.75 (60)</t>
+  </si>
+  <si>
+    <t>39.5 (60)</t>
+  </si>
+  <si>
+    <t>39.817 (60)</t>
+  </si>
+  <si>
+    <t>9.8 (60)</t>
+  </si>
+  <si>
+    <t>11.567 (60)</t>
+  </si>
+  <si>
+    <t>12.783 (60)</t>
+  </si>
+  <si>
+    <t>12.3 (60)</t>
+  </si>
+  <si>
+    <t>11.433 (60)</t>
+  </si>
+  <si>
+    <t>0.884 (60)</t>
+  </si>
+  <si>
+    <t>0.866 (60)</t>
+  </si>
+  <si>
+    <t>0.851 (60)</t>
+  </si>
+  <si>
+    <t>0.852 (60)</t>
+  </si>
+  <si>
+    <t>0.828 (60)</t>
+  </si>
+  <si>
+    <t>43.5 (2)</t>
+  </si>
+  <si>
+    <t>46.5 (2)</t>
+  </si>
+  <si>
+    <t>37.0 (2)</t>
+  </si>
+  <si>
+    <t>37.5 (2)</t>
+  </si>
+  <si>
+    <t>29.5 (2)</t>
+  </si>
+  <si>
+    <t>10.0 (2)</t>
+  </si>
+  <si>
+    <t>8.5 (2)</t>
+  </si>
+  <si>
+    <t>13.5 (2)</t>
+  </si>
+  <si>
+    <t>12.5 (2)</t>
+  </si>
+  <si>
+    <t>14.0 (2)</t>
+  </si>
+  <si>
+    <t>0.824 (2)</t>
+  </si>
+  <si>
+    <t>0.82 (2)</t>
+  </si>
+  <si>
+    <t>0.819 (2)</t>
+  </si>
+  <si>
+    <t>0.83 (2)</t>
+  </si>
+  <si>
+    <t>0.896 (2)</t>
   </si>
 </sst>
 </file>
@@ -472,345 +2542,345 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>51.273</v>
-      </c>
-      <c r="C2">
-        <v>48.824</v>
-      </c>
-      <c r="D2">
-        <v>47.385</v>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
       </c>
       <c r="E2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F2">
-        <v>1.223</v>
+        <v>0.45</v>
       </c>
       <c r="G2">
-        <v>0.296</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>48.944</v>
-      </c>
-      <c r="C3">
-        <v>49.561</v>
-      </c>
-      <c r="D3">
-        <v>48.818</v>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
       </c>
       <c r="E3">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="F3">
-        <v>0.061</v>
+        <v>0.129</v>
       </c>
       <c r="G3">
-        <v>0.9409999999999999</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>50.116</v>
-      </c>
-      <c r="C4">
-        <v>50.271</v>
-      </c>
-      <c r="D4">
-        <v>42.545</v>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F4">
-        <v>1.822</v>
+        <v>1.297</v>
       </c>
       <c r="G4">
-        <v>0.164</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>51.405</v>
-      </c>
-      <c r="C5">
-        <v>49.712</v>
-      </c>
-      <c r="D5">
-        <v>43.333</v>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
       </c>
       <c r="E5">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="F5">
-        <v>2.088</v>
+        <v>1.703</v>
       </c>
       <c r="G5">
-        <v>0.127</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>50.024</v>
-      </c>
-      <c r="C6">
-        <v>49.354</v>
-      </c>
-      <c r="D6">
-        <v>43.727</v>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="F6">
-        <v>1.096</v>
+        <v>1.011</v>
       </c>
       <c r="G6">
-        <v>0.336</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.909</v>
-      </c>
-      <c r="C7">
-        <v>8.481</v>
-      </c>
-      <c r="D7">
-        <v>8.077</v>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
       </c>
       <c r="E7">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F7">
-        <v>0.436</v>
+        <v>0.302</v>
       </c>
       <c r="G7">
-        <v>0.647</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.753</v>
-      </c>
-      <c r="C8">
-        <v>8.430999999999999</v>
-      </c>
-      <c r="D8">
-        <v>7.818</v>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
       </c>
       <c r="E8">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="F8">
-        <v>0.23</v>
+        <v>0.044</v>
       </c>
       <c r="G8">
-        <v>0.795</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>8.058</v>
-      </c>
-      <c r="C9">
-        <v>8.254</v>
-      </c>
-      <c r="D9">
-        <v>11.364</v>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
       </c>
       <c r="E9">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F9">
-        <v>2.273</v>
+        <v>1.633</v>
       </c>
       <c r="G9">
-        <v>0.106</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.714</v>
-      </c>
-      <c r="C10">
-        <v>8.297000000000001</v>
-      </c>
-      <c r="D10">
-        <v>10.75</v>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
       </c>
       <c r="E10">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="F10">
-        <v>2.056</v>
+        <v>1.598</v>
       </c>
       <c r="G10">
-        <v>0.131</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.273999999999999</v>
-      </c>
-      <c r="C11">
-        <v>8.451000000000001</v>
-      </c>
-      <c r="D11">
-        <v>9.909000000000001</v>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
       </c>
       <c r="E11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="F11">
-        <v>0.504</v>
+        <v>0.705</v>
       </c>
       <c r="G11">
-        <v>0.605</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.879</v>
-      </c>
-      <c r="C12">
-        <v>0.875</v>
-      </c>
-      <c r="D12">
-        <v>0.911</v>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
       </c>
       <c r="E12">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F12">
-        <v>0.596</v>
+        <v>0.64</v>
       </c>
       <c r="G12">
-        <v>0.552</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.863</v>
-      </c>
-      <c r="C13">
-        <v>0.858</v>
-      </c>
-      <c r="D13">
-        <v>0.895</v>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
       </c>
       <c r="E13">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="F13">
-        <v>0.444</v>
+        <v>0.425</v>
       </c>
       <c r="G13">
-        <v>0.642</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.866</v>
-      </c>
-      <c r="C14">
-        <v>0.837</v>
-      </c>
-      <c r="D14">
-        <v>0.871</v>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
       </c>
       <c r="E14">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F14">
-        <v>1.263</v>
+        <v>1.272</v>
       </c>
       <c r="G14">
-        <v>0.285</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.846</v>
-      </c>
-      <c r="C15">
-        <v>0.827</v>
-      </c>
-      <c r="D15">
-        <v>0.884</v>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
       </c>
       <c r="E15">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="F15">
-        <v>1.19</v>
+        <v>1.263</v>
       </c>
       <c r="G15">
-        <v>0.306</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.823</v>
-      </c>
-      <c r="C16">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="D16">
-        <v>0.916</v>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
       </c>
       <c r="E16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="F16">
-        <v>2.582</v>
+        <v>2.616</v>
       </c>
       <c r="G16">
-        <v>0.078</v>
+        <v>0.075</v>
       </c>
     </row>
   </sheetData>
@@ -856,283 +2926,283 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>54.895</v>
-      </c>
-      <c r="C2">
-        <v>49.8</v>
-      </c>
-      <c r="D2">
-        <v>48.155</v>
-      </c>
-      <c r="E2">
-        <v>50.643</v>
+      <c r="B2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E2" t="s">
+        <v>564</v>
       </c>
       <c r="F2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G2">
-        <v>1.537</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="H2">
-        <v>0.206</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>53.6</v>
-      </c>
-      <c r="C3">
-        <v>48.287</v>
-      </c>
-      <c r="D3">
-        <v>49.693</v>
-      </c>
-      <c r="E3">
-        <v>49</v>
+      <c r="B3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E3" t="s">
+        <v>565</v>
       </c>
       <c r="F3">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G3">
-        <v>0.921</v>
+        <v>0.973</v>
       </c>
       <c r="H3">
-        <v>0.431</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>52.65</v>
-      </c>
-      <c r="C4">
-        <v>49.369</v>
-      </c>
-      <c r="D4">
-        <v>50.096</v>
-      </c>
-      <c r="E4">
-        <v>47.273</v>
+      <c r="B4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E4" t="s">
+        <v>566</v>
       </c>
       <c r="F4">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G4">
-        <v>0.507</v>
+        <v>1.04</v>
       </c>
       <c r="H4">
-        <v>0.678</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>52.684</v>
-      </c>
-      <c r="C5">
-        <v>50.5</v>
-      </c>
-      <c r="D5">
-        <v>48.986</v>
-      </c>
-      <c r="E5">
-        <v>47.364</v>
+      <c r="B5" t="s">
+        <v>522</v>
+      </c>
+      <c r="C5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D5" t="s">
+        <v>552</v>
+      </c>
+      <c r="E5" t="s">
+        <v>567</v>
       </c>
       <c r="F5">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G5">
-        <v>0.602</v>
+        <v>1.676</v>
       </c>
       <c r="H5">
-        <v>0.615</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>49.571</v>
-      </c>
-      <c r="C6">
-        <v>48.869</v>
-      </c>
-      <c r="D6">
-        <v>49.7</v>
-      </c>
-      <c r="E6">
-        <v>51.1</v>
+      <c r="B6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E6" t="s">
+        <v>568</v>
       </c>
       <c r="F6">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G6">
-        <v>0.121</v>
+        <v>0.915</v>
       </c>
       <c r="H6">
-        <v>0.948</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6.842</v>
-      </c>
-      <c r="C7">
-        <v>8.183</v>
-      </c>
-      <c r="D7">
-        <v>8.643000000000001</v>
-      </c>
-      <c r="E7">
-        <v>8.214</v>
+      <c r="B7" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" t="s">
+        <v>539</v>
+      </c>
+      <c r="D7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E7" t="s">
+        <v>569</v>
       </c>
       <c r="F7">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G7">
-        <v>0.848</v>
+        <v>0.464</v>
       </c>
       <c r="H7">
-        <v>0.469</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.4</v>
-      </c>
-      <c r="C8">
-        <v>8.808999999999999</v>
-      </c>
-      <c r="D8">
-        <v>8.52</v>
-      </c>
-      <c r="E8">
-        <v>7.846</v>
+      <c r="B8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D8" t="s">
+        <v>555</v>
+      </c>
+      <c r="E8" t="s">
+        <v>570</v>
       </c>
       <c r="F8">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G8">
-        <v>0.556</v>
+        <v>0.96</v>
       </c>
       <c r="H8">
-        <v>0.645</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.45</v>
-      </c>
-      <c r="C9">
-        <v>8.423</v>
-      </c>
-      <c r="D9">
-        <v>8.384</v>
-      </c>
-      <c r="E9">
-        <v>8.727</v>
+      <c r="B9" t="s">
+        <v>526</v>
+      </c>
+      <c r="C9" t="s">
+        <v>541</v>
+      </c>
+      <c r="D9" t="s">
+        <v>556</v>
+      </c>
+      <c r="E9" t="s">
+        <v>571</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G9">
-        <v>0.252</v>
+        <v>0.993</v>
       </c>
       <c r="H9">
-        <v>0.86</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.842</v>
-      </c>
-      <c r="C10">
-        <v>7.861</v>
-      </c>
-      <c r="D10">
-        <v>8.754</v>
-      </c>
-      <c r="E10">
-        <v>8.727</v>
+      <c r="B10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C10" t="s">
+        <v>542</v>
+      </c>
+      <c r="D10" t="s">
+        <v>557</v>
+      </c>
+      <c r="E10" t="s">
+        <v>571</v>
       </c>
       <c r="F10">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G10">
-        <v>0.532</v>
+        <v>1.743</v>
       </c>
       <c r="H10">
-        <v>0.661</v>
+        <v>0.158</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.81</v>
-      </c>
-      <c r="C11">
-        <v>8.523</v>
-      </c>
-      <c r="D11">
-        <v>8.4</v>
-      </c>
-      <c r="E11">
-        <v>7.4</v>
+      <c r="B11" t="s">
+        <v>528</v>
+      </c>
+      <c r="C11" t="s">
+        <v>543</v>
+      </c>
+      <c r="D11" t="s">
+        <v>558</v>
+      </c>
+      <c r="E11" t="s">
+        <v>572</v>
       </c>
       <c r="F11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G11">
-        <v>0.186</v>
+        <v>0.606</v>
       </c>
       <c r="H11">
-        <v>0.906</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.91</v>
-      </c>
-      <c r="C12">
-        <v>0.866</v>
-      </c>
-      <c r="D12">
-        <v>0.894</v>
-      </c>
-      <c r="E12">
-        <v>0.852</v>
+      <c r="B12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C12" t="s">
+        <v>544</v>
+      </c>
+      <c r="D12" t="s">
+        <v>559</v>
+      </c>
+      <c r="E12" t="s">
+        <v>573</v>
       </c>
       <c r="F12">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G12">
-        <v>1.767</v>
+        <v>1.768</v>
       </c>
       <c r="H12">
         <v>0.154</v>
@@ -1142,104 +3212,104 @@
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.87</v>
-      </c>
-      <c r="C13">
-        <v>0.845</v>
-      </c>
-      <c r="D13">
-        <v>0.883</v>
-      </c>
-      <c r="E13">
-        <v>0.874</v>
+      <c r="B13" t="s">
+        <v>530</v>
+      </c>
+      <c r="C13" t="s">
+        <v>545</v>
+      </c>
+      <c r="D13" t="s">
+        <v>560</v>
+      </c>
+      <c r="E13" t="s">
+        <v>574</v>
       </c>
       <c r="F13">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G13">
-        <v>1.542</v>
+        <v>1.52</v>
       </c>
       <c r="H13">
-        <v>0.204</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.87</v>
-      </c>
-      <c r="C14">
-        <v>0.84</v>
-      </c>
-      <c r="D14">
-        <v>0.858</v>
-      </c>
-      <c r="E14">
-        <v>0.87</v>
+      <c r="B14" t="s">
+        <v>531</v>
+      </c>
+      <c r="C14" t="s">
+        <v>546</v>
+      </c>
+      <c r="D14" t="s">
+        <v>561</v>
+      </c>
+      <c r="E14" t="s">
+        <v>575</v>
       </c>
       <c r="F14">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G14">
-        <v>0.526</v>
+        <v>0.538</v>
       </c>
       <c r="H14">
-        <v>0.665</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.86</v>
-      </c>
-      <c r="C15">
-        <v>0.8179999999999999</v>
-      </c>
-      <c r="D15">
-        <v>0.858</v>
-      </c>
-      <c r="E15">
-        <v>0.873</v>
+      <c r="B15" t="s">
+        <v>532</v>
+      </c>
+      <c r="C15" t="s">
+        <v>547</v>
+      </c>
+      <c r="D15" t="s">
+        <v>562</v>
+      </c>
+      <c r="E15" t="s">
+        <v>576</v>
       </c>
       <c r="F15">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G15">
-        <v>1.68</v>
+        <v>1.678</v>
       </c>
       <c r="H15">
-        <v>0.173</v>
+        <v>0.172</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.844</v>
-      </c>
-      <c r="C16">
-        <v>0.8080000000000001</v>
-      </c>
-      <c r="D16">
-        <v>0.834</v>
-      </c>
-      <c r="E16">
-        <v>0.881</v>
+      <c r="B16" t="s">
+        <v>533</v>
+      </c>
+      <c r="C16" t="s">
+        <v>548</v>
+      </c>
+      <c r="D16" t="s">
+        <v>563</v>
+      </c>
+      <c r="E16" t="s">
+        <v>577</v>
       </c>
       <c r="F16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G16">
-        <v>1.248</v>
+        <v>1.209</v>
       </c>
       <c r="H16">
-        <v>0.293</v>
+        <v>0.307</v>
       </c>
     </row>
   </sheetData>
@@ -1285,390 +3355,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>56.222</v>
-      </c>
-      <c r="C2">
-        <v>49.36</v>
-      </c>
-      <c r="D2">
-        <v>49.919</v>
-      </c>
-      <c r="E2">
-        <v>47.385</v>
+      <c r="B2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E2" t="s">
+        <v>622</v>
       </c>
       <c r="F2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G2">
-        <v>1.13</v>
+        <v>1.412</v>
       </c>
       <c r="H2">
-        <v>0.338</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>51.2</v>
-      </c>
-      <c r="C3">
-        <v>48.812</v>
-      </c>
-      <c r="D3">
-        <v>50.226</v>
-      </c>
-      <c r="E3">
-        <v>45.636</v>
+      <c r="B3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E3" t="s">
+        <v>623</v>
       </c>
       <c r="F3">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G3">
-        <v>0.8129999999999999</v>
+        <v>2.505</v>
       </c>
       <c r="H3">
-        <v>0.488</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>57.333</v>
-      </c>
-      <c r="C4">
-        <v>48.679</v>
-      </c>
-      <c r="D4">
-        <v>50.99</v>
-      </c>
-      <c r="E4">
-        <v>45.2</v>
+      <c r="B4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C4" t="s">
+        <v>595</v>
+      </c>
+      <c r="D4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E4" t="s">
+        <v>624</v>
       </c>
       <c r="F4">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G4">
-        <v>2.371</v>
+        <v>3.975</v>
       </c>
       <c r="H4">
-        <v>0.07199999999999999</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>56.375</v>
-      </c>
-      <c r="C5">
-        <v>50.915</v>
-      </c>
-      <c r="D5">
-        <v>50.115</v>
-      </c>
-      <c r="E5">
-        <v>43.762</v>
+      <c r="B5" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E5" t="s">
+        <v>625</v>
       </c>
       <c r="F5">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G5">
-        <v>2.405</v>
+        <v>2.947</v>
       </c>
       <c r="H5">
-        <v>0.06900000000000001</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>49.556</v>
-      </c>
-      <c r="C6">
-        <v>47.512</v>
-      </c>
-      <c r="D6">
-        <v>51.229</v>
-      </c>
-      <c r="E6">
-        <v>47.632</v>
+      <c r="B6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D6" t="s">
+        <v>611</v>
+      </c>
+      <c r="E6" t="s">
+        <v>626</v>
       </c>
       <c r="F6">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G6">
-        <v>1.291</v>
+        <v>1.904</v>
       </c>
       <c r="H6">
-        <v>0.279</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6.889</v>
-      </c>
-      <c r="C7">
-        <v>8.233000000000001</v>
-      </c>
-      <c r="D7">
-        <v>8.170999999999999</v>
-      </c>
-      <c r="E7">
-        <v>9.038</v>
+      <c r="B7" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" t="s">
+        <v>598</v>
+      </c>
+      <c r="D7" t="s">
+        <v>612</v>
+      </c>
+      <c r="E7" t="s">
+        <v>627</v>
       </c>
       <c r="F7">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G7">
-        <v>0.554</v>
+        <v>0.883</v>
       </c>
       <c r="H7">
-        <v>0.646</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.6</v>
-      </c>
-      <c r="C8">
-        <v>8.741</v>
-      </c>
-      <c r="D8">
-        <v>8.17</v>
-      </c>
-      <c r="E8">
-        <v>9.409000000000001</v>
+      <c r="B8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D8" t="s">
+        <v>613</v>
+      </c>
+      <c r="E8" t="s">
+        <v>628</v>
       </c>
       <c r="F8">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G8">
-        <v>0.474</v>
+        <v>1.823</v>
       </c>
       <c r="H8">
-        <v>0.701</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>6.222</v>
-      </c>
-      <c r="C9">
-        <v>8.523999999999999</v>
-      </c>
-      <c r="D9">
-        <v>8.118</v>
-      </c>
-      <c r="E9">
-        <v>9.6</v>
+      <c r="B9" t="s">
+        <v>585</v>
+      </c>
+      <c r="C9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" t="s">
+        <v>614</v>
+      </c>
+      <c r="E9" t="s">
+        <v>629</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G9">
-        <v>1.108</v>
+        <v>2.929</v>
       </c>
       <c r="H9">
-        <v>0.347</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>6.875</v>
-      </c>
-      <c r="C10">
-        <v>7.61</v>
-      </c>
-      <c r="D10">
-        <v>8.311999999999999</v>
-      </c>
-      <c r="E10">
-        <v>10.524</v>
+      <c r="B10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C10" t="s">
+        <v>600</v>
+      </c>
+      <c r="D10" t="s">
+        <v>615</v>
+      </c>
+      <c r="E10" t="s">
+        <v>630</v>
       </c>
       <c r="F10">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G10">
-        <v>2.194</v>
+        <v>2.904</v>
       </c>
       <c r="H10">
-        <v>0.09</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>9.333</v>
-      </c>
-      <c r="C11">
-        <v>9.048</v>
-      </c>
-      <c r="D11">
-        <v>7.729</v>
-      </c>
-      <c r="E11">
-        <v>9.105</v>
+      <c r="B11" t="s">
+        <v>587</v>
+      </c>
+      <c r="C11" t="s">
+        <v>601</v>
+      </c>
+      <c r="D11" t="s">
+        <v>616</v>
+      </c>
+      <c r="E11" t="s">
+        <v>629</v>
       </c>
       <c r="F11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G11">
-        <v>1.238</v>
+        <v>1.638</v>
       </c>
       <c r="H11">
-        <v>0.297</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.915</v>
-      </c>
-      <c r="C12">
-        <v>0.859</v>
-      </c>
-      <c r="D12">
-        <v>0.893</v>
-      </c>
-      <c r="E12">
-        <v>0.87</v>
+      <c r="B12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C12" t="s">
+        <v>602</v>
+      </c>
+      <c r="D12" t="s">
+        <v>617</v>
+      </c>
+      <c r="E12" t="s">
+        <v>631</v>
       </c>
       <c r="F12">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G12">
-        <v>1.795</v>
+        <v>1.804</v>
       </c>
       <c r="H12">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.876</v>
-      </c>
-      <c r="C13">
-        <v>0.835</v>
-      </c>
-      <c r="D13">
-        <v>0.882</v>
-      </c>
-      <c r="E13">
-        <v>0.86</v>
+      <c r="B13" t="s">
+        <v>589</v>
+      </c>
+      <c r="C13" t="s">
+        <v>603</v>
+      </c>
+      <c r="D13" t="s">
+        <v>618</v>
+      </c>
+      <c r="E13" t="s">
+        <v>632</v>
       </c>
       <c r="F13">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G13">
-        <v>2.342</v>
+        <v>2.375</v>
       </c>
       <c r="H13">
-        <v>0.074</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.857</v>
-      </c>
-      <c r="C14">
-        <v>0.832</v>
-      </c>
-      <c r="D14">
-        <v>0.867</v>
-      </c>
-      <c r="E14">
-        <v>0.844</v>
+      <c r="B14" t="s">
+        <v>590</v>
+      </c>
+      <c r="C14" t="s">
+        <v>604</v>
+      </c>
+      <c r="D14" t="s">
+        <v>619</v>
+      </c>
+      <c r="E14" t="s">
+        <v>633</v>
       </c>
       <c r="F14">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G14">
-        <v>1.086</v>
+        <v>1.113</v>
       </c>
       <c r="H14">
-        <v>0.356</v>
+        <v>0.344</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.864</v>
-      </c>
-      <c r="C15">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="D15">
-        <v>0.852</v>
-      </c>
-      <c r="E15">
-        <v>0.877</v>
+      <c r="B15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C15" t="s">
+        <v>605</v>
+      </c>
+      <c r="D15" t="s">
+        <v>620</v>
+      </c>
+      <c r="E15" t="s">
+        <v>634</v>
       </c>
       <c r="F15">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G15">
-        <v>2.159</v>
+        <v>2.13</v>
       </c>
       <c r="H15">
-        <v>0.094</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.805</v>
-      </c>
-      <c r="C16">
-        <v>0.802</v>
-      </c>
-      <c r="D16">
-        <v>0.838</v>
-      </c>
-      <c r="E16">
-        <v>0.853</v>
+      <c r="B16" t="s">
+        <v>592</v>
+      </c>
+      <c r="C16" t="s">
+        <v>606</v>
+      </c>
+      <c r="D16" t="s">
+        <v>621</v>
+      </c>
+      <c r="E16" t="s">
+        <v>635</v>
       </c>
       <c r="F16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G16">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H16">
-        <v>0.269</v>
+        <v>0.272</v>
       </c>
     </row>
   </sheetData>
@@ -1717,435 +3787,435 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>58.25</v>
-      </c>
-      <c r="C2">
-        <v>50.567</v>
-      </c>
-      <c r="D2">
-        <v>49.483</v>
-      </c>
-      <c r="E2">
-        <v>48.6</v>
-      </c>
-      <c r="F2">
-        <v>43.5</v>
+      <c r="B2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F2" t="s">
+        <v>694</v>
       </c>
       <c r="G2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="H2">
-        <v>0.753</v>
+        <v>0.898</v>
       </c>
       <c r="I2">
-        <v>0.5570000000000001</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3">
-        <v>49.103</v>
-      </c>
-      <c r="D3">
-        <v>50.026</v>
-      </c>
-      <c r="E3">
-        <v>46.778</v>
-      </c>
-      <c r="F3">
-        <v>46.5</v>
+      <c r="B3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F3" t="s">
+        <v>695</v>
       </c>
       <c r="G3">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="H3">
-        <v>1.139</v>
+        <v>2.187</v>
       </c>
       <c r="I3">
-        <v>0.339</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>67.667</v>
-      </c>
-      <c r="C4">
-        <v>50.103</v>
-      </c>
-      <c r="D4">
-        <v>51.144</v>
-      </c>
-      <c r="E4">
-        <v>45.122</v>
-      </c>
-      <c r="F4">
-        <v>37</v>
+      <c r="B4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C4" t="s">
+        <v>651</v>
+      </c>
+      <c r="D4" t="s">
+        <v>666</v>
+      </c>
+      <c r="E4" t="s">
+        <v>681</v>
+      </c>
+      <c r="F4" t="s">
+        <v>696</v>
       </c>
       <c r="G4">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="H4">
-        <v>3.697</v>
+        <v>3.868</v>
       </c>
       <c r="I4">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>83</v>
-      </c>
-      <c r="C5">
-        <v>50.414</v>
-      </c>
-      <c r="D5">
-        <v>50.825</v>
-      </c>
-      <c r="E5">
-        <v>46.571</v>
-      </c>
-      <c r="F5">
-        <v>37.5</v>
+      <c r="B5" t="s">
+        <v>639</v>
+      </c>
+      <c r="C5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D5" t="s">
+        <v>667</v>
+      </c>
+      <c r="E5" t="s">
+        <v>682</v>
+      </c>
+      <c r="F5" t="s">
+        <v>697</v>
       </c>
       <c r="G5">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="H5">
-        <v>4.799</v>
+        <v>1.714</v>
       </c>
       <c r="I5">
-        <v>0.001</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>58.667</v>
-      </c>
-      <c r="C6">
-        <v>47.8</v>
-      </c>
-      <c r="D6">
-        <v>49.592</v>
-      </c>
-      <c r="E6">
-        <v>50.39</v>
-      </c>
-      <c r="F6">
-        <v>42</v>
+      <c r="B6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D6" t="s">
+        <v>668</v>
+      </c>
+      <c r="E6" t="s">
+        <v>683</v>
+      </c>
+      <c r="F6" t="s">
+        <v>698</v>
       </c>
       <c r="G6">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="H6">
-        <v>0.718</v>
+        <v>0.647</v>
       </c>
       <c r="I6">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6.75</v>
-      </c>
-      <c r="C7">
-        <v>7.967</v>
-      </c>
-      <c r="D7">
-        <v>8.353</v>
-      </c>
-      <c r="E7">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
+      <c r="B7" t="s">
+        <v>641</v>
+      </c>
+      <c r="C7" t="s">
+        <v>654</v>
+      </c>
+      <c r="D7" t="s">
+        <v>669</v>
+      </c>
+      <c r="E7" t="s">
+        <v>684</v>
+      </c>
+      <c r="F7" t="s">
+        <v>699</v>
       </c>
       <c r="G7">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="H7">
-        <v>0.268</v>
+        <v>0.35</v>
       </c>
       <c r="I7">
-        <v>0.898</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>6.25</v>
-      </c>
-      <c r="C8">
-        <v>8.603</v>
-      </c>
-      <c r="D8">
-        <v>8.351000000000001</v>
-      </c>
-      <c r="E8">
-        <v>9.089</v>
-      </c>
-      <c r="F8">
-        <v>8.5</v>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>655</v>
+      </c>
+      <c r="D8" t="s">
+        <v>670</v>
+      </c>
+      <c r="E8" t="s">
+        <v>685</v>
+      </c>
+      <c r="F8" t="s">
+        <v>700</v>
       </c>
       <c r="G8">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="H8">
-        <v>0.397</v>
+        <v>1.371</v>
       </c>
       <c r="I8">
-        <v>0.8100000000000001</v>
+        <v>0.244</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>3.667</v>
-      </c>
-      <c r="C9">
-        <v>7.931</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>9.901999999999999</v>
-      </c>
-      <c r="F9">
-        <v>13.5</v>
+      <c r="B9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C9" t="s">
+        <v>656</v>
+      </c>
+      <c r="D9" t="s">
+        <v>671</v>
+      </c>
+      <c r="E9" t="s">
+        <v>686</v>
+      </c>
+      <c r="F9" t="s">
+        <v>701</v>
       </c>
       <c r="G9">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="H9">
-        <v>2.578</v>
+        <v>3.071</v>
       </c>
       <c r="I9">
-        <v>0.039</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>8.034000000000001</v>
-      </c>
-      <c r="D10">
-        <v>7.854</v>
-      </c>
-      <c r="E10">
-        <v>9.429</v>
-      </c>
-      <c r="F10">
-        <v>12.5</v>
+      <c r="B10" t="s">
+        <v>643</v>
+      </c>
+      <c r="C10" t="s">
+        <v>657</v>
+      </c>
+      <c r="D10" t="s">
+        <v>672</v>
+      </c>
+      <c r="E10" t="s">
+        <v>687</v>
+      </c>
+      <c r="F10" t="s">
+        <v>702</v>
       </c>
       <c r="G10">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="H10">
-        <v>2.299</v>
+        <v>1.317</v>
       </c>
       <c r="I10">
-        <v>0.06</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>9.1</v>
-      </c>
-      <c r="D11">
-        <v>8.33</v>
-      </c>
-      <c r="E11">
-        <v>7.927</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
+      <c r="B11" t="s">
+        <v>643</v>
+      </c>
+      <c r="C11" t="s">
+        <v>658</v>
+      </c>
+      <c r="D11" t="s">
+        <v>673</v>
+      </c>
+      <c r="E11" t="s">
+        <v>688</v>
+      </c>
+      <c r="F11" t="s">
+        <v>703</v>
       </c>
       <c r="G11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="H11">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
       <c r="I11">
-        <v>0.787</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.9370000000000001</v>
-      </c>
-      <c r="C12">
-        <v>0.876</v>
-      </c>
-      <c r="D12">
-        <v>0.877</v>
-      </c>
-      <c r="E12">
-        <v>0.885</v>
-      </c>
-      <c r="F12">
-        <v>0.824</v>
+      <c r="B12" t="s">
+        <v>644</v>
+      </c>
+      <c r="C12" t="s">
+        <v>659</v>
+      </c>
+      <c r="D12" t="s">
+        <v>674</v>
+      </c>
+      <c r="E12" t="s">
+        <v>689</v>
+      </c>
+      <c r="F12" t="s">
+        <v>704</v>
       </c>
       <c r="G12">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="H12">
-        <v>0.437</v>
+        <v>0.499</v>
       </c>
       <c r="I12">
-        <v>0.782</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.888</v>
-      </c>
-      <c r="C13">
-        <v>0.85</v>
-      </c>
-      <c r="D13">
-        <v>0.865</v>
-      </c>
-      <c r="E13">
-        <v>0.867</v>
-      </c>
-      <c r="F13">
-        <v>0.82</v>
+      <c r="B13" t="s">
+        <v>645</v>
+      </c>
+      <c r="C13" t="s">
+        <v>660</v>
+      </c>
+      <c r="D13" t="s">
+        <v>675</v>
+      </c>
+      <c r="E13" t="s">
+        <v>690</v>
+      </c>
+      <c r="F13" t="s">
+        <v>705</v>
       </c>
       <c r="G13">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="H13">
-        <v>0.268</v>
+        <v>0.288</v>
       </c>
       <c r="I13">
-        <v>0.898</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.858</v>
-      </c>
-      <c r="C14">
-        <v>0.842</v>
-      </c>
-      <c r="D14">
-        <v>0.855</v>
-      </c>
-      <c r="E14">
-        <v>0.851</v>
-      </c>
-      <c r="F14">
-        <v>0.819</v>
+      <c r="B14" t="s">
+        <v>646</v>
+      </c>
+      <c r="C14" t="s">
+        <v>661</v>
+      </c>
+      <c r="D14" t="s">
+        <v>676</v>
+      </c>
+      <c r="E14" t="s">
+        <v>691</v>
+      </c>
+      <c r="F14" t="s">
+        <v>706</v>
       </c>
       <c r="G14">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="H14">
-        <v>0.12</v>
+        <v>0.131</v>
       </c>
       <c r="I14">
-        <v>0.975</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.849</v>
-      </c>
-      <c r="C15">
-        <v>0.8090000000000001</v>
-      </c>
-      <c r="D15">
-        <v>0.847</v>
-      </c>
-      <c r="E15">
-        <v>0.858</v>
-      </c>
-      <c r="F15">
-        <v>0.83</v>
+      <c r="B15" t="s">
+        <v>647</v>
+      </c>
+      <c r="C15" t="s">
+        <v>662</v>
+      </c>
+      <c r="D15" t="s">
+        <v>677</v>
+      </c>
+      <c r="E15" t="s">
+        <v>692</v>
+      </c>
+      <c r="F15" t="s">
+        <v>707</v>
       </c>
       <c r="G15">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="H15">
-        <v>0.967</v>
+        <v>0.993</v>
       </c>
       <c r="I15">
-        <v>0.427</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.85</v>
-      </c>
-      <c r="C16">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="D16">
-        <v>0.824</v>
-      </c>
-      <c r="E16">
-        <v>0.83</v>
-      </c>
-      <c r="F16">
-        <v>0.969</v>
+      <c r="B16" t="s">
+        <v>648</v>
+      </c>
+      <c r="C16" t="s">
+        <v>663</v>
+      </c>
+      <c r="D16" t="s">
+        <v>678</v>
+      </c>
+      <c r="E16" t="s">
+        <v>693</v>
+      </c>
+      <c r="F16" t="s">
+        <v>708</v>
       </c>
       <c r="G16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="H16">
-        <v>0.354</v>
+        <v>0.266</v>
       </c>
       <c r="I16">
-        <v>0.841</v>
+        <v>0.899</v>
       </c>
     </row>
   </sheetData>
@@ -2188,345 +4258,345 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>53.453</v>
-      </c>
-      <c r="C2">
-        <v>48.296</v>
-      </c>
-      <c r="D2">
-        <v>47.885</v>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
       </c>
       <c r="E2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F2">
-        <v>4.098</v>
+        <v>2.957</v>
       </c>
       <c r="G2">
-        <v>0.018</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>50.609</v>
-      </c>
-      <c r="C3">
-        <v>48.519</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="F3">
-        <v>0.5610000000000001</v>
+        <v>1.119</v>
       </c>
       <c r="G3">
-        <v>0.571</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>50.302</v>
-      </c>
-      <c r="C4">
-        <v>50.085</v>
-      </c>
-      <c r="D4">
-        <v>46.957</v>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
       </c>
       <c r="E4">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F4">
-        <v>0.623</v>
+        <v>0.889</v>
       </c>
       <c r="G4">
-        <v>0.537</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>51.435</v>
-      </c>
-      <c r="C5">
-        <v>49.959</v>
-      </c>
-      <c r="D5">
-        <v>46.609</v>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>95</v>
       </c>
       <c r="E5">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="F5">
-        <v>1.146</v>
+        <v>1.927</v>
       </c>
       <c r="G5">
-        <v>0.32</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>50.164</v>
-      </c>
-      <c r="C6">
-        <v>49.376</v>
-      </c>
-      <c r="D6">
-        <v>46.727</v>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="F6">
-        <v>0.542</v>
+        <v>1.05</v>
       </c>
       <c r="G6">
-        <v>0.582</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.188</v>
-      </c>
-      <c r="C7">
-        <v>8.696999999999999</v>
-      </c>
-      <c r="D7">
-        <v>8.346</v>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
       </c>
       <c r="E7">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F7">
-        <v>2.548</v>
+        <v>2.014</v>
       </c>
       <c r="G7">
-        <v>0.08</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.202999999999999</v>
-      </c>
-      <c r="C8">
-        <v>8.815</v>
-      </c>
-      <c r="D8">
-        <v>7.792</v>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
       </c>
       <c r="E8">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="F8">
-        <v>0.637</v>
+        <v>1.054</v>
       </c>
       <c r="G8">
-        <v>0.53</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>8.032</v>
-      </c>
-      <c r="C9">
-        <v>8.349</v>
-      </c>
-      <c r="D9">
-        <v>9.087</v>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
       </c>
       <c r="E9">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F9">
-        <v>0.388</v>
+        <v>1.01</v>
       </c>
       <c r="G9">
-        <v>0.679</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.839</v>
-      </c>
-      <c r="C10">
-        <v>8.18</v>
-      </c>
-      <c r="D10">
-        <v>9.304</v>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
       </c>
       <c r="E10">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="F10">
-        <v>0.743</v>
+        <v>1.506</v>
       </c>
       <c r="G10">
-        <v>0.477</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.41</v>
-      </c>
-      <c r="C11">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="D11">
-        <v>9.135999999999999</v>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
       </c>
       <c r="E11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="F11">
-        <v>0.221</v>
+        <v>0.547</v>
       </c>
       <c r="G11">
-        <v>0.802</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.89</v>
-      </c>
-      <c r="C12">
-        <v>0.87</v>
-      </c>
-      <c r="D12">
-        <v>0.902</v>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>102</v>
       </c>
       <c r="E12">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F12">
-        <v>1.336</v>
+        <v>1.357</v>
       </c>
       <c r="G12">
-        <v>0.265</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.863</v>
-      </c>
-      <c r="C13">
-        <v>0.854</v>
-      </c>
-      <c r="D13">
-        <v>0.899</v>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
       </c>
       <c r="E13">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="F13">
-        <v>1.283</v>
+        <v>1.28</v>
       </c>
       <c r="G13">
-        <v>0.279</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.863</v>
-      </c>
-      <c r="C14">
-        <v>0.84</v>
-      </c>
-      <c r="D14">
-        <v>0.874</v>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
       </c>
       <c r="E14">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F14">
-        <v>1.06</v>
+        <v>1.069</v>
       </c>
       <c r="G14">
-        <v>0.348</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.846</v>
-      </c>
-      <c r="C15">
-        <v>0.829</v>
-      </c>
-      <c r="D15">
-        <v>0.864</v>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>105</v>
       </c>
       <c r="E15">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="F15">
-        <v>0.789</v>
+        <v>0.803</v>
       </c>
       <c r="G15">
-        <v>0.456</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.828</v>
-      </c>
-      <c r="C16">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="D16">
-        <v>0.885</v>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
       </c>
       <c r="E16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="F16">
-        <v>2.713</v>
+        <v>2.658</v>
       </c>
       <c r="G16">
-        <v>0.06900000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2572,372 +4642,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>53.452</v>
-      </c>
-      <c r="C2">
-        <v>48.86</v>
-      </c>
-      <c r="D2">
-        <v>48.795</v>
-      </c>
-      <c r="E2">
-        <v>47</v>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" t="s">
+        <v>152</v>
       </c>
       <c r="F2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G2">
-        <v>1.557</v>
+        <v>1.302</v>
       </c>
       <c r="H2">
-        <v>0.201</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>50.881</v>
-      </c>
-      <c r="C3">
-        <v>48.606</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>153</v>
       </c>
       <c r="F3">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G3">
-        <v>0.53</v>
+        <v>1.423</v>
       </c>
       <c r="H3">
-        <v>0.59</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>49.905</v>
-      </c>
-      <c r="C4">
-        <v>49.785</v>
-      </c>
-      <c r="D4">
-        <v>49.816</v>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
       </c>
       <c r="F4">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G4">
-        <v>0.001</v>
+        <v>0.971</v>
       </c>
       <c r="H4">
-        <v>0.999</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>51.875</v>
-      </c>
-      <c r="C5">
-        <v>50.047</v>
-      </c>
-      <c r="D5">
-        <v>48.405</v>
-      </c>
-      <c r="E5">
-        <v>34</v>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>155</v>
       </c>
       <c r="F5">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G5">
-        <v>0.954</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="H5">
-        <v>0.416</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>49.244</v>
-      </c>
-      <c r="C6">
-        <v>49.588</v>
-      </c>
-      <c r="D6">
-        <v>48.771</v>
-      </c>
-      <c r="E6">
-        <v>38</v>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>156</v>
       </c>
       <c r="F6">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G6">
-        <v>0.278</v>
+        <v>0.432</v>
       </c>
       <c r="H6">
-        <v>0.841</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.333</v>
-      </c>
-      <c r="C7">
-        <v>8.487</v>
-      </c>
-      <c r="D7">
-        <v>8.256</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>157</v>
       </c>
       <c r="F7">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G7">
-        <v>0.732</v>
+        <v>0.647</v>
       </c>
       <c r="H7">
-        <v>0.534</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.238</v>
-      </c>
-      <c r="C8">
-        <v>8.725</v>
-      </c>
-      <c r="D8">
-        <v>8.128</v>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
       </c>
       <c r="F8">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G8">
-        <v>0.315</v>
+        <v>1.262</v>
       </c>
       <c r="H8">
-        <v>0.73</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>8.095000000000001</v>
-      </c>
-      <c r="C9">
-        <v>8.467000000000001</v>
-      </c>
-      <c r="D9">
-        <v>8.132</v>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" t="s">
+        <v>158</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G9">
-        <v>0.13</v>
+        <v>1.416</v>
       </c>
       <c r="H9">
-        <v>0.878</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.825</v>
-      </c>
-      <c r="C10">
-        <v>8.093</v>
-      </c>
-      <c r="D10">
-        <v>8.784000000000001</v>
-      </c>
-      <c r="E10">
-        <v>16</v>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
       </c>
       <c r="F10">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G10">
-        <v>1.107</v>
+        <v>0.751</v>
       </c>
       <c r="H10">
-        <v>0.347</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.951000000000001</v>
-      </c>
-      <c r="C11">
-        <v>8.221</v>
-      </c>
-      <c r="D11">
-        <v>8.686</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>160</v>
       </c>
       <c r="F11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G11">
-        <v>0.329</v>
+        <v>0.119</v>
       </c>
       <c r="H11">
-        <v>0.805</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.88</v>
-      </c>
-      <c r="C12">
-        <v>0.873</v>
-      </c>
-      <c r="D12">
-        <v>0.897</v>
-      </c>
-      <c r="E12">
-        <v>0.989</v>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>161</v>
       </c>
       <c r="F12">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G12">
-        <v>0.804</v>
+        <v>0.852</v>
       </c>
       <c r="H12">
-        <v>0.493</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.864</v>
-      </c>
-      <c r="C13">
-        <v>0.855</v>
-      </c>
-      <c r="D13">
-        <v>0.885</v>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
       </c>
       <c r="F13">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G13">
-        <v>0.88</v>
+        <v>0.594</v>
       </c>
       <c r="H13">
-        <v>0.416</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.853</v>
-      </c>
-      <c r="C14">
-        <v>0.843</v>
-      </c>
-      <c r="D14">
-        <v>0.875</v>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
       </c>
       <c r="F14">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G14">
-        <v>0.919</v>
+        <v>0.625</v>
       </c>
       <c r="H14">
-        <v>0.401</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.839</v>
-      </c>
-      <c r="C15">
-        <v>0.83</v>
-      </c>
-      <c r="D15">
-        <v>0.862</v>
-      </c>
-      <c r="E15">
-        <v>0.997</v>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" t="s">
+        <v>164</v>
       </c>
       <c r="F15">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G15">
-        <v>0.959</v>
+        <v>1.11</v>
       </c>
       <c r="H15">
-        <v>0.413</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="C16">
-        <v>0.819</v>
-      </c>
-      <c r="D16">
-        <v>0.848</v>
-      </c>
-      <c r="E16">
-        <v>0.994</v>
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" t="s">
+        <v>165</v>
       </c>
       <c r="F16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G16">
-        <v>0.969</v>
+        <v>1.121</v>
       </c>
       <c r="H16">
-        <v>0.408</v>
+        <v>0.341</v>
       </c>
     </row>
   </sheetData>
@@ -2983,335 +5071,335 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>55.556</v>
-      </c>
-      <c r="C2">
-        <v>49.277</v>
-      </c>
-      <c r="D2">
-        <v>47.8</v>
-      </c>
-      <c r="E2">
-        <v>52</v>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
       </c>
       <c r="F2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G2">
-        <v>2.546</v>
+        <v>1.593</v>
       </c>
       <c r="H2">
-        <v>0.057</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>52.577</v>
-      </c>
-      <c r="C3">
-        <v>48.778</v>
-      </c>
-      <c r="D3">
-        <v>49.034</v>
-      </c>
-      <c r="E3">
-        <v>48</v>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E3" t="s">
+        <v>212</v>
       </c>
       <c r="F3">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G3">
-        <v>0.596</v>
+        <v>0.381</v>
       </c>
       <c r="H3">
-        <v>0.618</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>50.808</v>
-      </c>
-      <c r="C4">
-        <v>50.76</v>
-      </c>
-      <c r="D4">
-        <v>47.667</v>
-      </c>
-      <c r="E4">
-        <v>41.333</v>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
       </c>
       <c r="F4">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G4">
-        <v>1.221</v>
+        <v>0.522</v>
       </c>
       <c r="H4">
-        <v>0.303</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>53.875</v>
-      </c>
-      <c r="C5">
-        <v>50.252</v>
-      </c>
-      <c r="D5">
-        <v>48.286</v>
-      </c>
-      <c r="E5">
-        <v>44.5</v>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
       </c>
       <c r="F5">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G5">
-        <v>1.276</v>
+        <v>0.28</v>
       </c>
       <c r="H5">
-        <v>0.284</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>50.259</v>
-      </c>
-      <c r="C6">
-        <v>49.901</v>
-      </c>
-      <c r="D6">
-        <v>47.862</v>
-      </c>
-      <c r="E6">
-        <v>44.5</v>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>215</v>
       </c>
       <c r="F6">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G6">
-        <v>0.44</v>
+        <v>1.029</v>
       </c>
       <c r="H6">
-        <v>0.725</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>6.963</v>
-      </c>
-      <c r="C7">
-        <v>8.348000000000001</v>
-      </c>
-      <c r="D7">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="E7">
-        <v>6.25</v>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>216</v>
       </c>
       <c r="F7">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G7">
-        <v>1.237</v>
+        <v>0.998</v>
       </c>
       <c r="H7">
-        <v>0.297</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>7.731</v>
-      </c>
-      <c r="C8">
-        <v>8.718999999999999</v>
-      </c>
-      <c r="D8">
-        <v>8.492000000000001</v>
-      </c>
-      <c r="E8">
-        <v>7.667</v>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" t="s">
+        <v>217</v>
       </c>
       <c r="F8">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G8">
-        <v>0.324</v>
+        <v>0.235</v>
       </c>
       <c r="H8">
-        <v>0.8080000000000001</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.885</v>
-      </c>
-      <c r="C9">
-        <v>7.992</v>
-      </c>
-      <c r="D9">
-        <v>9.211</v>
-      </c>
-      <c r="E9">
-        <v>10.333</v>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D9" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" t="s">
+        <v>218</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G9">
-        <v>1.053</v>
+        <v>0.339</v>
       </c>
       <c r="H9">
-        <v>0.37</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.292</v>
-      </c>
-      <c r="C10">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="D10">
-        <v>8.554</v>
-      </c>
-      <c r="E10">
-        <v>11</v>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
       </c>
       <c r="F10">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G10">
-        <v>0.804</v>
+        <v>0.136</v>
       </c>
       <c r="H10">
-        <v>0.493</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.741</v>
-      </c>
-      <c r="C11">
-        <v>8.247999999999999</v>
-      </c>
-      <c r="D11">
-        <v>8.724</v>
-      </c>
-      <c r="E11">
-        <v>9.5</v>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" t="s">
+        <v>220</v>
       </c>
       <c r="F11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G11">
-        <v>0.177</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H11">
-        <v>0.912</v>
+        <v>0.5580000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.88</v>
-      </c>
-      <c r="C12">
-        <v>0.878</v>
-      </c>
-      <c r="D12">
-        <v>0.88</v>
-      </c>
-      <c r="E12">
-        <v>0.899</v>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
       </c>
       <c r="F12">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G12">
-        <v>0.048</v>
+        <v>0.054</v>
       </c>
       <c r="H12">
-        <v>0.986</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.862</v>
-      </c>
-      <c r="C13">
-        <v>0.859</v>
-      </c>
-      <c r="D13">
-        <v>0.868</v>
-      </c>
-      <c r="E13">
-        <v>0.86</v>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" t="s">
+        <v>222</v>
       </c>
       <c r="F13">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G13">
-        <v>0.073</v>
+        <v>0.075</v>
       </c>
       <c r="H13">
-        <v>0.974</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.853</v>
-      </c>
-      <c r="C14">
-        <v>0.849</v>
-      </c>
-      <c r="D14">
-        <v>0.852</v>
-      </c>
-      <c r="E14">
-        <v>0.871</v>
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>223</v>
       </c>
       <c r="F14">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G14">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="H14">
         <v>0.99</v>
@@ -3321,52 +5409,52 @@
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.834</v>
-      </c>
-      <c r="C15">
-        <v>0.833</v>
-      </c>
-      <c r="D15">
-        <v>0.848</v>
-      </c>
-      <c r="E15">
-        <v>0.892</v>
+      <c r="B15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" t="s">
+        <v>224</v>
       </c>
       <c r="F15">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G15">
-        <v>0.379</v>
+        <v>0.447</v>
       </c>
       <c r="H15">
-        <v>0.768</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="C16">
-        <v>0.823</v>
-      </c>
-      <c r="D16">
-        <v>0.828</v>
-      </c>
-      <c r="E16">
-        <v>0.926</v>
+      <c r="B16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" t="s">
+        <v>225</v>
       </c>
       <c r="F16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G16">
-        <v>0.426</v>
+        <v>0.314</v>
       </c>
       <c r="H16">
-        <v>0.735</v>
+        <v>0.8159999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3409,345 +5497,345 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>52.056</v>
-      </c>
-      <c r="C2">
-        <v>48.762</v>
-      </c>
-      <c r="D2">
-        <v>49.839</v>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
       </c>
       <c r="E2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F2">
-        <v>1.357</v>
+        <v>0.097</v>
       </c>
       <c r="G2">
-        <v>0.26</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>49.6</v>
-      </c>
-      <c r="C3">
-        <v>49.014</v>
-      </c>
-      <c r="D3">
-        <v>49.964</v>
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" t="s">
+        <v>257</v>
       </c>
       <c r="E3">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="F3">
-        <v>0.078</v>
+        <v>0.157</v>
       </c>
       <c r="G3">
-        <v>0.925</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>50.635</v>
-      </c>
-      <c r="C4">
-        <v>50.274</v>
-      </c>
-      <c r="D4">
-        <v>46.071</v>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" t="s">
+        <v>258</v>
       </c>
       <c r="E4">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F4">
-        <v>1.348</v>
+        <v>1.373</v>
       </c>
       <c r="G4">
-        <v>0.262</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>52.094</v>
-      </c>
-      <c r="C5">
-        <v>49.811</v>
-      </c>
-      <c r="D5">
-        <v>47</v>
+      <c r="B5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" t="s">
+        <v>259</v>
       </c>
       <c r="E5">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="F5">
-        <v>1.405</v>
+        <v>1.415</v>
       </c>
       <c r="G5">
-        <v>0.248</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>49.382</v>
-      </c>
-      <c r="C6">
-        <v>49.76</v>
-      </c>
-      <c r="D6">
-        <v>47.286</v>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D6" t="s">
+        <v>260</v>
       </c>
       <c r="E6">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="F6">
-        <v>0.396</v>
+        <v>0.533</v>
       </c>
       <c r="G6">
-        <v>0.674</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.87</v>
-      </c>
-      <c r="C7">
-        <v>8.353999999999999</v>
-      </c>
-      <c r="D7">
-        <v>8.355</v>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" t="s">
+        <v>261</v>
       </c>
       <c r="E7">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F7">
-        <v>0.24</v>
+        <v>0.144</v>
       </c>
       <c r="G7">
-        <v>0.787</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.635999999999999</v>
-      </c>
-      <c r="C8">
-        <v>8.557</v>
-      </c>
-      <c r="D8">
-        <v>8.179</v>
+      <c r="B8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D8" t="s">
+        <v>262</v>
       </c>
       <c r="E8">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="F8">
-        <v>0.08599999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="G8">
-        <v>0.918</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.673</v>
-      </c>
-      <c r="C9">
-        <v>8.244</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" t="s">
+        <v>263</v>
       </c>
       <c r="E9">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F9">
-        <v>2.128</v>
+        <v>1.617</v>
       </c>
       <c r="G9">
-        <v>0.122</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.547</v>
-      </c>
-      <c r="C10">
-        <v>8.15</v>
-      </c>
-      <c r="D10">
-        <v>9.741</v>
+      <c r="B10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" t="s">
+        <v>264</v>
       </c>
       <c r="E10">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="F10">
-        <v>1.804</v>
+        <v>1.609</v>
       </c>
       <c r="G10">
-        <v>0.167</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.564</v>
-      </c>
-      <c r="C11">
-        <v>8.224</v>
-      </c>
-      <c r="D11">
-        <v>9.286</v>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D11" t="s">
+        <v>265</v>
       </c>
       <c r="E11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="F11">
-        <v>0.516</v>
+        <v>0.444</v>
       </c>
       <c r="G11">
-        <v>0.598</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.896</v>
-      </c>
-      <c r="C12">
-        <v>0.868</v>
-      </c>
-      <c r="D12">
-        <v>0.901</v>
+      <c r="B12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" t="s">
+        <v>266</v>
       </c>
       <c r="E12">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="F12">
-        <v>1.97</v>
+        <v>1.938</v>
       </c>
       <c r="G12">
-        <v>0.142</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.87</v>
-      </c>
-      <c r="C13">
-        <v>0.854</v>
-      </c>
-      <c r="D13">
-        <v>0.882</v>
+      <c r="B13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" t="s">
+        <v>267</v>
       </c>
       <c r="E13">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="F13">
-        <v>0.743</v>
+        <v>0.718</v>
       </c>
       <c r="G13">
-        <v>0.477</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.867</v>
-      </c>
-      <c r="C14">
-        <v>0.843</v>
-      </c>
-      <c r="D14">
-        <v>0.858</v>
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" t="s">
+        <v>268</v>
       </c>
       <c r="E14">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="F14">
-        <v>0.677</v>
+        <v>0.669</v>
       </c>
       <c r="G14">
-        <v>0.509</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.846</v>
-      </c>
-      <c r="C15">
-        <v>0.826</v>
-      </c>
-      <c r="D15">
-        <v>0.878</v>
+      <c r="B15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D15" t="s">
+        <v>269</v>
       </c>
       <c r="E15">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="F15">
-        <v>1.688</v>
+        <v>1.633</v>
       </c>
       <c r="G15">
-        <v>0.187</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.823</v>
-      </c>
-      <c r="C16">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="D16">
-        <v>0.874</v>
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" t="s">
+        <v>270</v>
       </c>
       <c r="E16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="F16">
-        <v>2.156</v>
+        <v>2.112</v>
       </c>
       <c r="G16">
-        <v>0.118</v>
+        <v>0.123</v>
       </c>
     </row>
   </sheetData>
@@ -3793,390 +5881,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>54.513</v>
-      </c>
-      <c r="C2">
-        <v>48.946</v>
-      </c>
-      <c r="D2">
-        <v>48.459</v>
-      </c>
-      <c r="E2">
-        <v>42.667</v>
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>315</v>
       </c>
       <c r="F2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G2">
-        <v>2.613</v>
+        <v>1.124</v>
       </c>
       <c r="H2">
-        <v>0.052</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>51.634</v>
-      </c>
-      <c r="C3">
-        <v>48.789</v>
-      </c>
-      <c r="D3">
-        <v>48.5</v>
-      </c>
-      <c r="E3">
-        <v>51.667</v>
+      <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" t="s">
+        <v>316</v>
       </c>
       <c r="F3">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G3">
-        <v>0.5639999999999999</v>
+        <v>0.655</v>
       </c>
       <c r="H3">
-        <v>0.639</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>51.436</v>
-      </c>
-      <c r="C4">
-        <v>49.898</v>
-      </c>
-      <c r="D4">
-        <v>48.946</v>
-      </c>
-      <c r="E4">
-        <v>37.5</v>
+      <c r="B4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" t="s">
+        <v>317</v>
       </c>
       <c r="F4">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G4">
-        <v>0.88</v>
+        <v>1.277</v>
       </c>
       <c r="H4">
-        <v>0.452</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>52.725</v>
-      </c>
-      <c r="C5">
-        <v>49.673</v>
-      </c>
-      <c r="D5">
-        <v>48.846</v>
-      </c>
-      <c r="E5">
-        <v>47</v>
+      <c r="B5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" t="s">
+        <v>318</v>
       </c>
       <c r="F5">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G5">
-        <v>0.768</v>
+        <v>1.627</v>
       </c>
       <c r="H5">
-        <v>0.513</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>50.643</v>
-      </c>
-      <c r="C6">
-        <v>48.625</v>
-      </c>
-      <c r="D6">
-        <v>49.906</v>
-      </c>
-      <c r="E6">
-        <v>42</v>
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" t="s">
+        <v>319</v>
       </c>
       <c r="F6">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G6">
-        <v>0.374</v>
+        <v>2.663</v>
       </c>
       <c r="H6">
-        <v>0.772</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.103</v>
-      </c>
-      <c r="C7">
-        <v>8.295</v>
-      </c>
-      <c r="D7">
-        <v>8.738</v>
-      </c>
-      <c r="E7">
-        <v>10.667</v>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" t="s">
+        <v>320</v>
       </c>
       <c r="F7">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G7">
-        <v>1.396</v>
+        <v>0.645</v>
       </c>
       <c r="H7">
-        <v>0.245</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>8.585000000000001</v>
-      </c>
-      <c r="D8">
-        <v>8.893000000000001</v>
-      </c>
-      <c r="E8">
-        <v>6.667</v>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" t="s">
+        <v>321</v>
       </c>
       <c r="F8">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G8">
-        <v>0.406</v>
+        <v>0.467</v>
       </c>
       <c r="H8">
-        <v>0.749</v>
+        <v>0.705</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.359</v>
-      </c>
-      <c r="C9">
-        <v>8.414999999999999</v>
-      </c>
-      <c r="D9">
-        <v>8.679</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" t="s">
+        <v>307</v>
+      </c>
+      <c r="E9" t="s">
+        <v>322</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G9">
-        <v>1.221</v>
+        <v>1.51</v>
       </c>
       <c r="H9">
-        <v>0.303</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.625</v>
-      </c>
-      <c r="C10">
-        <v>8.097</v>
-      </c>
-      <c r="D10">
-        <v>8.846</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
+      <c r="B10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E10" t="s">
+        <v>323</v>
       </c>
       <c r="F10">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G10">
-        <v>0.509</v>
+        <v>1.272</v>
       </c>
       <c r="H10">
-        <v>0.676</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.356999999999999</v>
-      </c>
-      <c r="C11">
-        <v>8.561999999999999</v>
-      </c>
-      <c r="D11">
-        <v>8.226000000000001</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" t="s">
+        <v>324</v>
       </c>
       <c r="F11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G11">
-        <v>0.323</v>
+        <v>2.144</v>
       </c>
       <c r="H11">
-        <v>0.8090000000000001</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.907</v>
-      </c>
-      <c r="C12">
-        <v>0.865</v>
-      </c>
-      <c r="D12">
-        <v>0.891</v>
-      </c>
-      <c r="E12">
-        <v>0.839</v>
+      <c r="B12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" t="s">
+        <v>325</v>
       </c>
       <c r="F12">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G12">
-        <v>1.852</v>
+        <v>1.801</v>
       </c>
       <c r="H12">
-        <v>0.139</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.873</v>
-      </c>
-      <c r="C13">
-        <v>0.851</v>
-      </c>
-      <c r="D13">
-        <v>0.876</v>
-      </c>
-      <c r="E13">
-        <v>0.86</v>
+      <c r="B13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" t="s">
+        <v>222</v>
       </c>
       <c r="F13">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G13">
-        <v>0.678</v>
+        <v>0.677</v>
       </c>
       <c r="H13">
-        <v>0.5659999999999999</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.873</v>
-      </c>
-      <c r="C14">
-        <v>0.838</v>
-      </c>
-      <c r="D14">
-        <v>0.864</v>
-      </c>
-      <c r="E14">
-        <v>0.792</v>
+      <c r="B14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" t="s">
+        <v>326</v>
       </c>
       <c r="F14">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G14">
-        <v>1.05</v>
+        <v>1.012</v>
       </c>
       <c r="H14">
-        <v>0.371</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.853</v>
-      </c>
-      <c r="C15">
-        <v>0.819</v>
-      </c>
-      <c r="D15">
-        <v>0.87</v>
-      </c>
-      <c r="E15">
-        <v>0.803</v>
+      <c r="B15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E15" t="s">
+        <v>327</v>
       </c>
       <c r="F15">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G15">
-        <v>1.911</v>
+        <v>1.874</v>
       </c>
       <c r="H15">
-        <v>0.129</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.847</v>
-      </c>
-      <c r="C16">
-        <v>0.797</v>
-      </c>
-      <c r="D16">
-        <v>0.86</v>
-      </c>
-      <c r="E16">
-        <v>0.916</v>
+      <c r="B16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" t="s">
+        <v>314</v>
+      </c>
+      <c r="E16" t="s">
+        <v>328</v>
       </c>
       <c r="F16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G16">
-        <v>3.075</v>
+        <v>2.963</v>
       </c>
       <c r="H16">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
     </row>
   </sheetData>
@@ -4222,361 +6310,361 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>54</v>
-      </c>
-      <c r="C2">
-        <v>49.158</v>
-      </c>
-      <c r="D2">
-        <v>49.656</v>
-      </c>
-      <c r="E2">
-        <v>41.8</v>
+      <c r="B2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" t="s">
+        <v>374</v>
       </c>
       <c r="F2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G2">
-        <v>1.632</v>
+        <v>1.842</v>
       </c>
       <c r="H2">
-        <v>0.183</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>50.72</v>
-      </c>
-      <c r="C3">
-        <v>49.306</v>
-      </c>
-      <c r="D3">
-        <v>48.953</v>
-      </c>
-      <c r="E3">
-        <v>47</v>
+      <c r="B3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" t="s">
+        <v>375</v>
       </c>
       <c r="F3">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G3">
-        <v>0.158</v>
+        <v>0.853</v>
       </c>
       <c r="H3">
-        <v>0.924</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>51.348</v>
-      </c>
-      <c r="C4">
-        <v>49.806</v>
-      </c>
-      <c r="D4">
-        <v>49.791</v>
-      </c>
-      <c r="E4">
-        <v>39</v>
+      <c r="B4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" t="s">
+        <v>376</v>
       </c>
       <c r="F4">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G4">
-        <v>0.793</v>
+        <v>2.802</v>
       </c>
       <c r="H4">
-        <v>0.499</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>52.167</v>
-      </c>
-      <c r="C5">
-        <v>50.969</v>
-      </c>
-      <c r="D5">
-        <v>48.58</v>
-      </c>
-      <c r="E5">
-        <v>43.5</v>
+      <c r="B5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E5" t="s">
+        <v>377</v>
       </c>
       <c r="F5">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G5">
-        <v>1.045</v>
+        <v>1.803</v>
       </c>
       <c r="H5">
-        <v>0.374</v>
+        <v>0.147</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>50.417</v>
-      </c>
-      <c r="C6">
-        <v>48.24</v>
-      </c>
-      <c r="D6">
-        <v>50.947</v>
-      </c>
-      <c r="E6">
-        <v>40.25</v>
+      <c r="B6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" t="s">
+        <v>378</v>
       </c>
       <c r="F6">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G6">
-        <v>1.293</v>
+        <v>1.918</v>
       </c>
       <c r="H6">
-        <v>0.278</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.087</v>
-      </c>
-      <c r="C7">
-        <v>8.377000000000001</v>
-      </c>
-      <c r="D7">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="E7">
-        <v>11.2</v>
+      <c r="B7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D7" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" t="s">
+        <v>379</v>
       </c>
       <c r="F7">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G7">
-        <v>1.279</v>
+        <v>1.761</v>
       </c>
       <c r="H7">
-        <v>0.282</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.68</v>
-      </c>
-      <c r="C8">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="D8">
-        <v>8.647</v>
-      </c>
-      <c r="E8">
-        <v>9</v>
+      <c r="B8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" t="s">
+        <v>380</v>
       </c>
       <c r="F8">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G8">
-        <v>0.07199999999999999</v>
+        <v>0.512</v>
       </c>
       <c r="H8">
-        <v>0.975</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>7.217</v>
-      </c>
-      <c r="C9">
-        <v>8.417</v>
-      </c>
-      <c r="D9">
-        <v>8.407</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
+      <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E9" t="s">
+        <v>381</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G9">
-        <v>0.97</v>
+        <v>3.093</v>
       </c>
       <c r="H9">
-        <v>0.408</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>8.042</v>
-      </c>
-      <c r="C10">
-        <v>7.571</v>
-      </c>
-      <c r="D10">
-        <v>8.901</v>
-      </c>
-      <c r="E10">
-        <v>10.5</v>
+      <c r="B10" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E10" t="s">
+        <v>382</v>
       </c>
       <c r="F10">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G10">
-        <v>1.384</v>
+        <v>1.501</v>
       </c>
       <c r="H10">
-        <v>0.249</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.583</v>
-      </c>
-      <c r="C11">
-        <v>8.779</v>
-      </c>
-      <c r="D11">
-        <v>7.75</v>
-      </c>
-      <c r="E11">
-        <v>12.75</v>
+      <c r="B11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11" t="s">
+        <v>353</v>
+      </c>
+      <c r="D11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E11" t="s">
+        <v>383</v>
       </c>
       <c r="F11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G11">
-        <v>1.608</v>
+        <v>1.922</v>
       </c>
       <c r="H11">
-        <v>0.189</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.905</v>
-      </c>
-      <c r="C12">
-        <v>0.863</v>
-      </c>
-      <c r="D12">
-        <v>0.894</v>
-      </c>
-      <c r="E12">
-        <v>0.848</v>
+      <c r="B12" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E12" t="s">
+        <v>384</v>
       </c>
       <c r="F12">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G12">
-        <v>1.789</v>
+        <v>1.752</v>
       </c>
       <c r="H12">
-        <v>0.15</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.884</v>
-      </c>
-      <c r="C13">
-        <v>0.842</v>
-      </c>
-      <c r="D13">
-        <v>0.885</v>
-      </c>
-      <c r="E13">
-        <v>0.779</v>
+      <c r="B13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E13" t="s">
+        <v>385</v>
       </c>
       <c r="F13">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G13">
-        <v>2.994</v>
+        <v>2.817</v>
       </c>
       <c r="H13">
-        <v>0.032</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.874</v>
-      </c>
-      <c r="C14">
-        <v>0.831</v>
-      </c>
-      <c r="D14">
-        <v>0.87</v>
-      </c>
-      <c r="E14">
-        <v>0.784</v>
+      <c r="B14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E14" t="s">
+        <v>386</v>
       </c>
       <c r="F14">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G14">
-        <v>1.897</v>
+        <v>1.792</v>
       </c>
       <c r="H14">
-        <v>0.131</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.855</v>
-      </c>
-      <c r="C15">
-        <v>0.806</v>
-      </c>
-      <c r="D15">
-        <v>0.872</v>
-      </c>
-      <c r="E15">
-        <v>0.845</v>
+      <c r="B15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" t="s">
+        <v>387</v>
       </c>
       <c r="F15">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G15">
-        <v>3.639</v>
+        <v>3.626</v>
       </c>
       <c r="H15">
         <v>0.014</v>
@@ -4586,26 +6674,26 @@
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.834</v>
-      </c>
-      <c r="C16">
-        <v>0.797</v>
-      </c>
-      <c r="D16">
-        <v>0.857</v>
-      </c>
-      <c r="E16">
-        <v>0.8169999999999999</v>
+      <c r="B16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C16" t="s">
+        <v>358</v>
+      </c>
+      <c r="D16" t="s">
+        <v>373</v>
+      </c>
+      <c r="E16" t="s">
+        <v>388</v>
       </c>
       <c r="F16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G16">
-        <v>2.787</v>
+        <v>2.759</v>
       </c>
       <c r="H16">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
     </row>
   </sheetData>
@@ -4654,426 +6742,435 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>59.231</v>
-      </c>
-      <c r="C2">
-        <v>49.745</v>
-      </c>
-      <c r="D2">
-        <v>49.028</v>
-      </c>
-      <c r="E2">
-        <v>45.875</v>
-      </c>
-      <c r="F2">
-        <v>49</v>
+      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" t="s">
+        <v>448</v>
       </c>
       <c r="G2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="H2">
-        <v>2.361</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
-        <v>0.054</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>53.667</v>
-      </c>
-      <c r="C3">
-        <v>50.57</v>
-      </c>
-      <c r="D3">
-        <v>47.821</v>
-      </c>
-      <c r="E3">
-        <v>47.733</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
+      <c r="B3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F3" t="s">
+        <v>449</v>
       </c>
       <c r="G3">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="H3">
-        <v>0.958</v>
+        <v>0.573</v>
       </c>
       <c r="I3">
-        <v>0.431</v>
+        <v>0.6820000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>54.615</v>
-      </c>
-      <c r="C4">
-        <v>51.083</v>
-      </c>
-      <c r="D4">
-        <v>49.375</v>
-      </c>
-      <c r="E4">
-        <v>41.462</v>
-      </c>
-      <c r="F4">
-        <v>35</v>
+      <c r="B4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" t="s">
+        <v>450</v>
       </c>
       <c r="G4">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="H4">
-        <v>2.391</v>
+        <v>1.772</v>
       </c>
       <c r="I4">
-        <v>0.052</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>54.286</v>
-      </c>
-      <c r="C5">
-        <v>51.077</v>
-      </c>
-      <c r="D5">
-        <v>49.46</v>
-      </c>
-      <c r="E5">
-        <v>44.643</v>
-      </c>
-      <c r="F5">
-        <v>41</v>
+      <c r="B5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F5" t="s">
+        <v>451</v>
       </c>
       <c r="G5">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="H5">
-        <v>1.26</v>
+        <v>0.643</v>
       </c>
       <c r="I5">
-        <v>0.287</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>53.133</v>
-      </c>
-      <c r="C6">
-        <v>48.422</v>
-      </c>
-      <c r="D6">
-        <v>49.916</v>
-      </c>
-      <c r="E6">
-        <v>46.8</v>
+      <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
+        <v>408</v>
+      </c>
+      <c r="D6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" t="s">
+        <v>438</v>
+      </c>
+      <c r="F6" t="s">
+        <v>452</v>
       </c>
       <c r="G6">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="H6">
-        <v>0.781</v>
+        <v>0.898</v>
       </c>
       <c r="I6">
-        <v>0.506</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>5.538</v>
-      </c>
-      <c r="C7">
-        <v>8.244999999999999</v>
-      </c>
-      <c r="D7">
-        <v>8.417</v>
-      </c>
-      <c r="E7">
-        <v>9.375</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
+      <c r="B7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F7" t="s">
+        <v>453</v>
       </c>
       <c r="G7">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="H7">
-        <v>1.559</v>
+        <v>0.582</v>
       </c>
       <c r="I7">
-        <v>0.186</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="C8">
-        <v>7.802</v>
-      </c>
-      <c r="D8">
-        <v>9.198</v>
-      </c>
-      <c r="E8">
-        <v>8.4</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
+      <c r="B8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D8" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F8" t="s">
+        <v>454</v>
       </c>
       <c r="G8">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="H8">
-        <v>1.005</v>
+        <v>0.495</v>
       </c>
       <c r="I8">
-        <v>0.406</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>6.308</v>
-      </c>
-      <c r="C9">
-        <v>7.726</v>
-      </c>
-      <c r="D9">
-        <v>8.673</v>
-      </c>
-      <c r="E9">
-        <v>11.077</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F9" t="s">
+        <v>455</v>
       </c>
       <c r="G9">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="H9">
-        <v>2.547</v>
+        <v>1.585</v>
       </c>
       <c r="I9">
-        <v>0.041</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.643</v>
-      </c>
-      <c r="C10">
-        <v>7.795</v>
-      </c>
-      <c r="D10">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="E10">
-        <v>10.286</v>
-      </c>
-      <c r="F10">
-        <v>11</v>
+      <c r="B10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" t="s">
+        <v>442</v>
+      </c>
+      <c r="F10" t="s">
+        <v>160</v>
       </c>
       <c r="G10">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="H10">
-        <v>0.888</v>
+        <v>0.469</v>
       </c>
       <c r="I10">
-        <v>0.472</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>7.6</v>
-      </c>
-      <c r="C11">
-        <v>8.928000000000001</v>
-      </c>
-      <c r="D11">
-        <v>8.095000000000001</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
+      <c r="B11" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" t="s">
+        <v>413</v>
+      </c>
+      <c r="D11" t="s">
+        <v>428</v>
+      </c>
+      <c r="E11" t="s">
+        <v>443</v>
+      </c>
+      <c r="F11" t="s">
+        <v>158</v>
       </c>
       <c r="G11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="H11">
-        <v>0.597</v>
+        <v>0.655</v>
       </c>
       <c r="I11">
-        <v>0.617</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.917</v>
-      </c>
-      <c r="C12">
-        <v>0.879</v>
-      </c>
-      <c r="D12">
-        <v>0.869</v>
-      </c>
-      <c r="E12">
-        <v>0.93</v>
-      </c>
-      <c r="F12">
-        <v>0.675</v>
+      <c r="B12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" t="s">
+        <v>414</v>
+      </c>
+      <c r="D12" t="s">
+        <v>429</v>
+      </c>
+      <c r="E12" t="s">
+        <v>444</v>
+      </c>
+      <c r="F12" t="s">
+        <v>456</v>
       </c>
       <c r="G12">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="H12">
-        <v>2.266</v>
+        <v>2.322</v>
       </c>
       <c r="I12">
-        <v>0.063</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.89</v>
-      </c>
-      <c r="C13">
-        <v>0.858</v>
-      </c>
-      <c r="D13">
-        <v>0.857</v>
-      </c>
-      <c r="E13">
-        <v>0.899</v>
-      </c>
-      <c r="F13">
-        <v>0.667</v>
+      <c r="B13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D13" t="s">
+        <v>430</v>
+      </c>
+      <c r="E13" t="s">
+        <v>445</v>
+      </c>
+      <c r="F13" t="s">
+        <v>457</v>
       </c>
       <c r="G13">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="H13">
-        <v>1.191</v>
+        <v>1.309</v>
       </c>
       <c r="I13">
-        <v>0.315</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.888</v>
-      </c>
-      <c r="C14">
-        <v>0.845</v>
-      </c>
-      <c r="D14">
-        <v>0.844</v>
-      </c>
-      <c r="E14">
-        <v>0.917</v>
-      </c>
-      <c r="F14">
-        <v>0.672</v>
+      <c r="B14" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" t="s">
+        <v>416</v>
+      </c>
+      <c r="D14" t="s">
+        <v>431</v>
+      </c>
+      <c r="E14" t="s">
+        <v>446</v>
+      </c>
+      <c r="F14" t="s">
+        <v>458</v>
       </c>
       <c r="G14">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="H14">
-        <v>1.658</v>
+        <v>1.628</v>
       </c>
       <c r="I14">
-        <v>0.161</v>
+        <v>0.167</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.847</v>
-      </c>
-      <c r="C15">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="D15">
-        <v>0.845</v>
-      </c>
-      <c r="E15">
-        <v>0.91</v>
-      </c>
-      <c r="F15">
-        <v>0.695</v>
+      <c r="B15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D15" t="s">
+        <v>432</v>
+      </c>
+      <c r="E15" t="s">
+        <v>445</v>
+      </c>
+      <c r="F15" t="s">
+        <v>459</v>
       </c>
       <c r="G15">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="H15">
-        <v>1.813</v>
+        <v>1.841</v>
       </c>
       <c r="I15">
-        <v>0.128</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.852</v>
-      </c>
-      <c r="C16">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="D16">
-        <v>0.8159999999999999</v>
-      </c>
-      <c r="E16">
-        <v>0.888</v>
+      <c r="B16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" t="s">
+        <v>418</v>
+      </c>
+      <c r="D16" t="s">
+        <v>433</v>
+      </c>
+      <c r="E16" t="s">
+        <v>447</v>
+      </c>
+      <c r="F16" t="s">
+        <v>460</v>
       </c>
       <c r="G16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="H16">
-        <v>1.432</v>
+        <v>1.101</v>
       </c>
       <c r="I16">
-        <v>0.235</v>
+        <v>0.357</v>
       </c>
     </row>
   </sheetData>
@@ -5119,390 +7216,390 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>51.938</v>
-      </c>
-      <c r="C2">
-        <v>48.88</v>
-      </c>
-      <c r="D2">
-        <v>50.255</v>
-      </c>
-      <c r="E2">
-        <v>52.333</v>
+      <c r="B2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E2" t="s">
+        <v>506</v>
       </c>
       <c r="F2">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G2">
-        <v>0.613</v>
+        <v>0.255</v>
       </c>
       <c r="H2">
-        <v>0.608</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>51.441</v>
-      </c>
-      <c r="C3">
-        <v>47.978</v>
-      </c>
-      <c r="D3">
-        <v>51.571</v>
-      </c>
-      <c r="E3">
-        <v>46.667</v>
+      <c r="B3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" t="s">
+        <v>507</v>
       </c>
       <c r="F3">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G3">
-        <v>1.236</v>
+        <v>0.442</v>
       </c>
       <c r="H3">
-        <v>0.297</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>50.257</v>
-      </c>
-      <c r="C4">
-        <v>50.13</v>
-      </c>
-      <c r="D4">
-        <v>49.022</v>
-      </c>
-      <c r="E4">
-        <v>43</v>
+      <c r="B4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D4" t="s">
+        <v>493</v>
+      </c>
+      <c r="E4" t="s">
+        <v>508</v>
       </c>
       <c r="F4">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G4">
-        <v>0.366</v>
+        <v>0.931</v>
       </c>
       <c r="H4">
-        <v>0.777</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>52.182</v>
-      </c>
-      <c r="C5">
-        <v>50.4</v>
-      </c>
-      <c r="D5">
-        <v>47.804</v>
-      </c>
-      <c r="E5">
-        <v>45</v>
+      <c r="B5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E5" t="s">
+        <v>509</v>
       </c>
       <c r="F5">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G5">
-        <v>0.92</v>
+        <v>1.28</v>
       </c>
       <c r="H5">
-        <v>0.432</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>48.714</v>
-      </c>
-      <c r="C6">
-        <v>49.427</v>
-      </c>
-      <c r="D6">
-        <v>49.478</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
+      <c r="B6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E6" t="s">
+        <v>510</v>
       </c>
       <c r="F6">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G6">
-        <v>0.031</v>
+        <v>0.709</v>
       </c>
       <c r="H6">
-        <v>0.993</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>7.781</v>
-      </c>
-      <c r="C7">
-        <v>8.478999999999999</v>
-      </c>
-      <c r="D7">
-        <v>7.927</v>
-      </c>
-      <c r="E7">
-        <v>7.667</v>
+      <c r="B7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D7" t="s">
+        <v>496</v>
+      </c>
+      <c r="E7" t="s">
+        <v>511</v>
       </c>
       <c r="F7">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G7">
-        <v>0.349</v>
+        <v>0.213</v>
       </c>
       <c r="H7">
-        <v>0.79</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>8.029</v>
-      </c>
-      <c r="C8">
-        <v>8.993</v>
-      </c>
-      <c r="D8">
-        <v>7.612</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
+      <c r="B8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E8" t="s">
+        <v>512</v>
       </c>
       <c r="F8">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G8">
-        <v>1.105</v>
+        <v>0.411</v>
       </c>
       <c r="H8">
-        <v>0.348</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>8.086</v>
-      </c>
-      <c r="C9">
-        <v>8.221</v>
-      </c>
-      <c r="D9">
-        <v>8.739000000000001</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
+      <c r="B9" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" t="s">
+        <v>498</v>
+      </c>
+      <c r="E9" t="s">
+        <v>513</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G9">
-        <v>0.27</v>
+        <v>1.153</v>
       </c>
       <c r="H9">
-        <v>0.847</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10">
-        <v>7.515</v>
-      </c>
-      <c r="C10">
-        <v>7.96</v>
-      </c>
-      <c r="D10">
-        <v>9.196</v>
-      </c>
-      <c r="E10">
-        <v>10.667</v>
+      <c r="B10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D10" t="s">
+        <v>499</v>
+      </c>
+      <c r="E10" t="s">
+        <v>514</v>
       </c>
       <c r="F10">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G10">
-        <v>1.19</v>
+        <v>1.355</v>
       </c>
       <c r="H10">
-        <v>0.315</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>8.657</v>
-      </c>
-      <c r="C11">
-        <v>8.468</v>
-      </c>
-      <c r="D11">
-        <v>8.304</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
+      <c r="B11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" t="s">
+        <v>485</v>
+      </c>
+      <c r="D11" t="s">
+        <v>500</v>
+      </c>
+      <c r="E11" t="s">
+        <v>512</v>
       </c>
       <c r="F11">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G11">
-        <v>0.04</v>
+        <v>0.616</v>
       </c>
       <c r="H11">
-        <v>0.989</v>
+        <v>0.605</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>0.898</v>
-      </c>
-      <c r="C12">
-        <v>0.868</v>
-      </c>
-      <c r="D12">
-        <v>0.895</v>
-      </c>
-      <c r="E12">
-        <v>0.87</v>
+      <c r="B12" t="s">
+        <v>471</v>
+      </c>
+      <c r="C12" t="s">
+        <v>486</v>
+      </c>
+      <c r="D12" t="s">
+        <v>501</v>
+      </c>
+      <c r="E12" t="s">
+        <v>515</v>
       </c>
       <c r="F12">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="G12">
-        <v>1.134</v>
+        <v>1.12</v>
       </c>
       <c r="H12">
-        <v>0.336</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0.863</v>
-      </c>
-      <c r="C13">
-        <v>0.851</v>
-      </c>
-      <c r="D13">
-        <v>0.892</v>
-      </c>
-      <c r="E13">
-        <v>0.825</v>
+      <c r="B13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D13" t="s">
+        <v>502</v>
+      </c>
+      <c r="E13" t="s">
+        <v>516</v>
       </c>
       <c r="F13">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="G13">
-        <v>1.35</v>
+        <v>1.305</v>
       </c>
       <c r="H13">
-        <v>0.259</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0.852</v>
-      </c>
-      <c r="C14">
-        <v>0.846</v>
-      </c>
-      <c r="D14">
-        <v>0.865</v>
-      </c>
-      <c r="E14">
-        <v>0.806</v>
+      <c r="B14" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" t="s">
+        <v>488</v>
+      </c>
+      <c r="D14" t="s">
+        <v>503</v>
+      </c>
+      <c r="E14" t="s">
+        <v>517</v>
       </c>
       <c r="F14">
-        <v>215</v>
+        <v>270</v>
       </c>
       <c r="G14">
-        <v>0.334</v>
+        <v>0.345</v>
       </c>
       <c r="H14">
-        <v>0.801</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>0.839</v>
-      </c>
-      <c r="C15">
-        <v>0.823</v>
-      </c>
-      <c r="D15">
-        <v>0.879</v>
-      </c>
-      <c r="E15">
-        <v>0.825</v>
+      <c r="B15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C15" t="s">
+        <v>489</v>
+      </c>
+      <c r="D15" t="s">
+        <v>504</v>
+      </c>
+      <c r="E15" t="s">
+        <v>516</v>
       </c>
       <c r="F15">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="G15">
-        <v>1.901</v>
+        <v>1.812</v>
       </c>
       <c r="H15">
-        <v>0.131</v>
+        <v>0.145</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="C16">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="D16">
-        <v>0.863</v>
-      </c>
-      <c r="E16">
-        <v>0.879</v>
+      <c r="B16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C16" t="s">
+        <v>490</v>
+      </c>
+      <c r="D16" t="s">
+        <v>505</v>
+      </c>
+      <c r="E16" t="s">
+        <v>518</v>
       </c>
       <c r="F16">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G16">
-        <v>1.763</v>
+        <v>1.74</v>
       </c>
       <c r="H16">
-        <v>0.155</v>
+        <v>0.159</v>
       </c>
     </row>
   </sheetData>
